--- a/ha-asset/01_design/05_rootapi/設計書_5.5.健康情報API.xlsx
+++ b/ha-asset/01_design/05_rootapi/設計書_5.5.健康情報API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\05_rootapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507AAE1B-D4BD-4D5A-9859-9DAC8C20869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E64D7-81E2-448B-B444-1EE5C70C810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.健康情報一覧取得API'!$A$1:$BP$110</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.健康情報更新API'!$A$1:$BP$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.健康情報更新API'!$A$1:$BP$100</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="187">
   <si>
     <t>更新日時</t>
   </si>
@@ -848,6 +848,16 @@
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>NodeAPI_トークン発行API実行</t>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
@@ -1327,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1727,15 +1737,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1748,6 +1749,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13462,10 +13484,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37:AB37"/>
+      <selection activeCell="L32" sqref="L32:AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -15632,76 +15654,76 @@
       <c r="C30" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="149"/>
       <c r="L30" s="85"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="150"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="150"/>
+      <c r="S30" s="150"/>
+      <c r="T30" s="150"/>
+      <c r="U30" s="150"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
       <c r="AC30" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="143" t="s">
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="148"/>
+      <c r="AF30" s="148"/>
+      <c r="AG30" s="148"/>
+      <c r="AH30" s="148"/>
+      <c r="AI30" s="148"/>
+      <c r="AJ30" s="148"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="AM30" s="144"/>
-      <c r="AN30" s="144"/>
-      <c r="AO30" s="144"/>
-      <c r="AP30" s="144"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="144"/>
-      <c r="AS30" s="144"/>
-      <c r="AT30" s="145"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="105" t="s">
+      <c r="AM30" s="152"/>
+      <c r="AN30" s="152"/>
+      <c r="AO30" s="152"/>
+      <c r="AP30" s="152"/>
+      <c r="AQ30" s="152"/>
+      <c r="AR30" s="152"/>
+      <c r="AS30" s="152"/>
+      <c r="AT30" s="153"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="148"/>
+      <c r="AW30" s="148"/>
+      <c r="AX30" s="148"/>
+      <c r="AY30" s="149"/>
+      <c r="AZ30" s="154" t="s">
         <v>176</v>
       </c>
-      <c r="BA30" s="72"/>
-      <c r="BB30" s="72"/>
-      <c r="BC30" s="72"/>
-      <c r="BD30" s="72"/>
-      <c r="BE30" s="72"/>
-      <c r="BF30" s="72"/>
-      <c r="BG30" s="72"/>
-      <c r="BH30" s="72"/>
-      <c r="BI30" s="72"/>
-      <c r="BJ30" s="72"/>
-      <c r="BK30" s="72"/>
-      <c r="BL30" s="72"/>
-      <c r="BM30" s="72"/>
-      <c r="BN30" s="72"/>
-      <c r="BO30" s="73"/>
+      <c r="BA30" s="148"/>
+      <c r="BB30" s="148"/>
+      <c r="BC30" s="148"/>
+      <c r="BD30" s="148"/>
+      <c r="BE30" s="148"/>
+      <c r="BF30" s="148"/>
+      <c r="BG30" s="148"/>
+      <c r="BH30" s="148"/>
+      <c r="BI30" s="148"/>
+      <c r="BJ30" s="148"/>
+      <c r="BK30" s="148"/>
+      <c r="BL30" s="148"/>
+      <c r="BM30" s="148"/>
+      <c r="BN30" s="148"/>
+      <c r="BO30" s="149"/>
       <c r="BP30" s="42"/>
     </row>
     <row r="31" spans="1:68" ht="50.25" customHeight="1" outlineLevel="1">
@@ -15713,72 +15735,72 @@
       <c r="C31" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="146" t="s">
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="143" t="s">
         <v>180</v>
       </c>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
       <c r="AC31" s="86"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="72"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="72"/>
-      <c r="AN31" s="72"/>
-      <c r="AO31" s="72"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="72"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="105"/>
-      <c r="BA31" s="72"/>
-      <c r="BB31" s="72"/>
-      <c r="BC31" s="72"/>
-      <c r="BD31" s="72"/>
-      <c r="BE31" s="72"/>
-      <c r="BF31" s="72"/>
-      <c r="BG31" s="72"/>
-      <c r="BH31" s="72"/>
-      <c r="BI31" s="72"/>
-      <c r="BJ31" s="72"/>
-      <c r="BK31" s="72"/>
-      <c r="BL31" s="72"/>
-      <c r="BM31" s="72"/>
-      <c r="BN31" s="72"/>
-      <c r="BO31" s="73"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148"/>
+      <c r="AI31" s="148"/>
+      <c r="AJ31" s="148"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="148"/>
+      <c r="AN31" s="148"/>
+      <c r="AO31" s="148"/>
+      <c r="AP31" s="148"/>
+      <c r="AQ31" s="148"/>
+      <c r="AR31" s="148"/>
+      <c r="AS31" s="148"/>
+      <c r="AT31" s="149"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="148"/>
+      <c r="AW31" s="148"/>
+      <c r="AX31" s="148"/>
+      <c r="AY31" s="149"/>
+      <c r="AZ31" s="154"/>
+      <c r="BA31" s="148"/>
+      <c r="BB31" s="148"/>
+      <c r="BC31" s="148"/>
+      <c r="BD31" s="148"/>
+      <c r="BE31" s="148"/>
+      <c r="BF31" s="148"/>
+      <c r="BG31" s="148"/>
+      <c r="BH31" s="148"/>
+      <c r="BI31" s="148"/>
+      <c r="BJ31" s="148"/>
+      <c r="BK31" s="148"/>
+      <c r="BL31" s="148"/>
+      <c r="BM31" s="148"/>
+      <c r="BN31" s="148"/>
+      <c r="BO31" s="149"/>
       <c r="BP31" s="42"/>
     </row>
     <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
@@ -15787,144 +15809,146 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="149"/>
       <c r="L32" s="85"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150"/>
       <c r="AC32" s="86"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="72"/>
-      <c r="AN32" s="72"/>
-      <c r="AO32" s="72"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="105"/>
-      <c r="BA32" s="72"/>
-      <c r="BB32" s="72"/>
-      <c r="BC32" s="72"/>
-      <c r="BD32" s="72"/>
-      <c r="BE32" s="72"/>
-      <c r="BF32" s="72"/>
-      <c r="BG32" s="72"/>
-      <c r="BH32" s="72"/>
-      <c r="BI32" s="72"/>
-      <c r="BJ32" s="72"/>
-      <c r="BK32" s="72"/>
-      <c r="BL32" s="72"/>
-      <c r="BM32" s="72"/>
-      <c r="BN32" s="72"/>
-      <c r="BO32" s="73"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="148"/>
+      <c r="AF32" s="148"/>
+      <c r="AG32" s="148"/>
+      <c r="AH32" s="148"/>
+      <c r="AI32" s="148"/>
+      <c r="AJ32" s="148"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="148"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="148"/>
+      <c r="AT32" s="149"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="148"/>
+      <c r="AW32" s="148"/>
+      <c r="AX32" s="148"/>
+      <c r="AY32" s="149"/>
+      <c r="AZ32" s="154"/>
+      <c r="BA32" s="148"/>
+      <c r="BB32" s="148"/>
+      <c r="BC32" s="148"/>
+      <c r="BD32" s="148"/>
+      <c r="BE32" s="148"/>
+      <c r="BF32" s="148"/>
+      <c r="BG32" s="148"/>
+      <c r="BH32" s="148"/>
+      <c r="BI32" s="148"/>
+      <c r="BJ32" s="148"/>
+      <c r="BK32" s="148"/>
+      <c r="BL32" s="148"/>
+      <c r="BM32" s="148"/>
+      <c r="BN32" s="148"/>
+      <c r="BO32" s="149"/>
       <c r="BP32" s="42"/>
     </row>
     <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A33" s="42"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="64">
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
-      <c r="AS33" s="8"/>
-      <c r="AT33" s="8"/>
-      <c r="AU33" s="8"/>
-      <c r="AV33" s="8"/>
-      <c r="AW33" s="8"/>
-      <c r="AX33" s="8"/>
-      <c r="AY33" s="8"/>
-      <c r="AZ33" s="8"/>
-      <c r="BA33" s="8"/>
-      <c r="BB33" s="8"/>
-      <c r="BC33" s="8"/>
-      <c r="BD33" s="8"/>
-      <c r="BE33" s="8"/>
-      <c r="BF33" s="8"/>
-      <c r="BG33" s="8"/>
-      <c r="BH33" s="8"/>
-      <c r="BI33" s="8"/>
-      <c r="BJ33" s="8"/>
-      <c r="BK33" s="8"/>
-      <c r="BL33" s="8"/>
-      <c r="BM33" s="8"/>
-      <c r="BN33" s="8"/>
-      <c r="BO33" s="9"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="150"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="150"/>
+      <c r="S33" s="150"/>
+      <c r="T33" s="150"/>
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="148"/>
+      <c r="AH33" s="148"/>
+      <c r="AI33" s="148"/>
+      <c r="AJ33" s="148"/>
+      <c r="AK33" s="149"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="148"/>
+      <c r="AN33" s="148"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="148"/>
+      <c r="AT33" s="149"/>
+      <c r="AU33" s="71"/>
+      <c r="AV33" s="148"/>
+      <c r="AW33" s="148"/>
+      <c r="AX33" s="148"/>
+      <c r="AY33" s="149"/>
+      <c r="AZ33" s="154"/>
+      <c r="BA33" s="148"/>
+      <c r="BB33" s="148"/>
+      <c r="BC33" s="148"/>
+      <c r="BD33" s="148"/>
+      <c r="BE33" s="148"/>
+      <c r="BF33" s="148"/>
+      <c r="BG33" s="148"/>
+      <c r="BH33" s="148"/>
+      <c r="BI33" s="148"/>
+      <c r="BJ33" s="148"/>
+      <c r="BK33" s="148"/>
+      <c r="BL33" s="148"/>
+      <c r="BM33" s="148"/>
+      <c r="BN33" s="148"/>
+      <c r="BO33" s="149"/>
       <c r="BP33" s="42"/>
     </row>
     <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
@@ -15933,71 +15957,71 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="73"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="149"/>
       <c r="L34" s="85"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="150"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="150"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="150"/>
+      <c r="AA34" s="150"/>
+      <c r="AB34" s="150"/>
       <c r="AC34" s="86"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="105"/>
-      <c r="BA34" s="72"/>
-      <c r="BB34" s="72"/>
-      <c r="BC34" s="72"/>
-      <c r="BD34" s="72"/>
-      <c r="BE34" s="72"/>
-      <c r="BF34" s="72"/>
-      <c r="BG34" s="72"/>
-      <c r="BH34" s="72"/>
-      <c r="BI34" s="72"/>
-      <c r="BJ34" s="72"/>
-      <c r="BK34" s="72"/>
-      <c r="BL34" s="72"/>
-      <c r="BM34" s="72"/>
-      <c r="BN34" s="72"/>
-      <c r="BO34" s="73"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="149"/>
+      <c r="AL34" s="71"/>
+      <c r="AM34" s="148"/>
+      <c r="AN34" s="148"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="148"/>
+      <c r="AR34" s="148"/>
+      <c r="AS34" s="148"/>
+      <c r="AT34" s="149"/>
+      <c r="AU34" s="71"/>
+      <c r="AV34" s="148"/>
+      <c r="AW34" s="148"/>
+      <c r="AX34" s="148"/>
+      <c r="AY34" s="149"/>
+      <c r="AZ34" s="154"/>
+      <c r="BA34" s="148"/>
+      <c r="BB34" s="148"/>
+      <c r="BC34" s="148"/>
+      <c r="BD34" s="148"/>
+      <c r="BE34" s="148"/>
+      <c r="BF34" s="148"/>
+      <c r="BG34" s="148"/>
+      <c r="BH34" s="148"/>
+      <c r="BI34" s="148"/>
+      <c r="BJ34" s="148"/>
+      <c r="BK34" s="148"/>
+      <c r="BL34" s="148"/>
+      <c r="BM34" s="148"/>
+      <c r="BN34" s="148"/>
+      <c r="BO34" s="149"/>
       <c r="BP34" s="42"/>
     </row>
     <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16006,144 +16030,144 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="73"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="149"/>
       <c r="L35" s="85"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="150"/>
+      <c r="Q35" s="150"/>
+      <c r="R35" s="150"/>
+      <c r="S35" s="150"/>
+      <c r="T35" s="150"/>
+      <c r="U35" s="150"/>
+      <c r="V35" s="150"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
+      <c r="Y35" s="150"/>
+      <c r="Z35" s="150"/>
+      <c r="AA35" s="150"/>
+      <c r="AB35" s="150"/>
       <c r="AC35" s="86"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="72"/>
-      <c r="AO35" s="72"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="105"/>
-      <c r="BA35" s="72"/>
-      <c r="BB35" s="72"/>
-      <c r="BC35" s="72"/>
-      <c r="BD35" s="72"/>
-      <c r="BE35" s="72"/>
-      <c r="BF35" s="72"/>
-      <c r="BG35" s="72"/>
-      <c r="BH35" s="72"/>
-      <c r="BI35" s="72"/>
-      <c r="BJ35" s="72"/>
-      <c r="BK35" s="72"/>
-      <c r="BL35" s="72"/>
-      <c r="BM35" s="72"/>
-      <c r="BN35" s="72"/>
-      <c r="BO35" s="73"/>
+      <c r="AD35" s="148"/>
+      <c r="AE35" s="148"/>
+      <c r="AF35" s="148"/>
+      <c r="AG35" s="148"/>
+      <c r="AH35" s="148"/>
+      <c r="AI35" s="148"/>
+      <c r="AJ35" s="148"/>
+      <c r="AK35" s="149"/>
+      <c r="AL35" s="71"/>
+      <c r="AM35" s="148"/>
+      <c r="AN35" s="148"/>
+      <c r="AO35" s="148"/>
+      <c r="AP35" s="148"/>
+      <c r="AQ35" s="148"/>
+      <c r="AR35" s="148"/>
+      <c r="AS35" s="148"/>
+      <c r="AT35" s="149"/>
+      <c r="AU35" s="71"/>
+      <c r="AV35" s="148"/>
+      <c r="AW35" s="148"/>
+      <c r="AX35" s="148"/>
+      <c r="AY35" s="149"/>
+      <c r="AZ35" s="154"/>
+      <c r="BA35" s="148"/>
+      <c r="BB35" s="148"/>
+      <c r="BC35" s="148"/>
+      <c r="BD35" s="148"/>
+      <c r="BE35" s="148"/>
+      <c r="BF35" s="148"/>
+      <c r="BG35" s="148"/>
+      <c r="BH35" s="148"/>
+      <c r="BI35" s="148"/>
+      <c r="BJ35" s="148"/>
+      <c r="BK35" s="148"/>
+      <c r="BL35" s="148"/>
+      <c r="BM35" s="148"/>
+      <c r="BN35" s="148"/>
+      <c r="BO35" s="149"/>
       <c r="BP35" s="42"/>
     </row>
     <row r="36" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="64">
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
-      <c r="AS36" s="8"/>
-      <c r="AT36" s="8"/>
-      <c r="AU36" s="8"/>
-      <c r="AV36" s="8"/>
-      <c r="AW36" s="8"/>
-      <c r="AX36" s="8"/>
-      <c r="AY36" s="8"/>
-      <c r="AZ36" s="8"/>
-      <c r="BA36" s="8"/>
-      <c r="BB36" s="8"/>
-      <c r="BC36" s="8"/>
-      <c r="BD36" s="8"/>
-      <c r="BE36" s="8"/>
-      <c r="BF36" s="8"/>
-      <c r="BG36" s="8"/>
-      <c r="BH36" s="8"/>
-      <c r="BI36" s="8"/>
-      <c r="BJ36" s="8"/>
-      <c r="BK36" s="8"/>
-      <c r="BL36" s="8"/>
-      <c r="BM36" s="8"/>
-      <c r="BN36" s="8"/>
-      <c r="BO36" s="9"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
+      <c r="Q36" s="150"/>
+      <c r="R36" s="150"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="150"/>
+      <c r="V36" s="150"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="Y36" s="150"/>
+      <c r="Z36" s="150"/>
+      <c r="AA36" s="150"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="148"/>
+      <c r="AE36" s="148"/>
+      <c r="AF36" s="148"/>
+      <c r="AG36" s="148"/>
+      <c r="AH36" s="148"/>
+      <c r="AI36" s="148"/>
+      <c r="AJ36" s="148"/>
+      <c r="AK36" s="149"/>
+      <c r="AL36" s="71"/>
+      <c r="AM36" s="148"/>
+      <c r="AN36" s="148"/>
+      <c r="AO36" s="148"/>
+      <c r="AP36" s="148"/>
+      <c r="AQ36" s="148"/>
+      <c r="AR36" s="148"/>
+      <c r="AS36" s="148"/>
+      <c r="AT36" s="149"/>
+      <c r="AU36" s="71"/>
+      <c r="AV36" s="148"/>
+      <c r="AW36" s="148"/>
+      <c r="AX36" s="148"/>
+      <c r="AY36" s="149"/>
+      <c r="AZ36" s="154"/>
+      <c r="BA36" s="148"/>
+      <c r="BB36" s="148"/>
+      <c r="BC36" s="148"/>
+      <c r="BD36" s="148"/>
+      <c r="BE36" s="148"/>
+      <c r="BF36" s="148"/>
+      <c r="BG36" s="148"/>
+      <c r="BH36" s="148"/>
+      <c r="BI36" s="148"/>
+      <c r="BJ36" s="148"/>
+      <c r="BK36" s="148"/>
+      <c r="BL36" s="148"/>
+      <c r="BM36" s="148"/>
+      <c r="BN36" s="148"/>
+      <c r="BO36" s="149"/>
       <c r="BP36" s="42"/>
     </row>
     <row r="37" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16153,70 +16177,70 @@
         <v>8</v>
       </c>
       <c r="C37" s="86"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
       <c r="L37" s="85"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="82"/>
-      <c r="AA37" s="82"/>
-      <c r="AB37" s="82"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="150"/>
+      <c r="Q37" s="150"/>
+      <c r="R37" s="150"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="150"/>
+      <c r="U37" s="150"/>
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
+      <c r="X37" s="150"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="150"/>
+      <c r="AA37" s="150"/>
+      <c r="AB37" s="150"/>
       <c r="AC37" s="86"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="73"/>
-      <c r="AL37" s="104"/>
-      <c r="AM37" s="72"/>
-      <c r="AN37" s="72"/>
-      <c r="AO37" s="72"/>
-      <c r="AP37" s="72"/>
-      <c r="AQ37" s="72"/>
-      <c r="AR37" s="72"/>
-      <c r="AS37" s="72"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="104"/>
-      <c r="AV37" s="72"/>
-      <c r="AW37" s="72"/>
-      <c r="AX37" s="72"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="105"/>
-      <c r="BA37" s="72"/>
-      <c r="BB37" s="72"/>
-      <c r="BC37" s="72"/>
-      <c r="BD37" s="72"/>
-      <c r="BE37" s="72"/>
-      <c r="BF37" s="72"/>
-      <c r="BG37" s="72"/>
-      <c r="BH37" s="72"/>
-      <c r="BI37" s="72"/>
-      <c r="BJ37" s="72"/>
-      <c r="BK37" s="72"/>
-      <c r="BL37" s="72"/>
-      <c r="BM37" s="72"/>
-      <c r="BN37" s="72"/>
-      <c r="BO37" s="73"/>
+      <c r="AD37" s="148"/>
+      <c r="AE37" s="148"/>
+      <c r="AF37" s="148"/>
+      <c r="AG37" s="148"/>
+      <c r="AH37" s="148"/>
+      <c r="AI37" s="148"/>
+      <c r="AJ37" s="148"/>
+      <c r="AK37" s="149"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="148"/>
+      <c r="AN37" s="148"/>
+      <c r="AO37" s="148"/>
+      <c r="AP37" s="148"/>
+      <c r="AQ37" s="148"/>
+      <c r="AR37" s="148"/>
+      <c r="AS37" s="148"/>
+      <c r="AT37" s="149"/>
+      <c r="AU37" s="71"/>
+      <c r="AV37" s="148"/>
+      <c r="AW37" s="148"/>
+      <c r="AX37" s="148"/>
+      <c r="AY37" s="149"/>
+      <c r="AZ37" s="154"/>
+      <c r="BA37" s="148"/>
+      <c r="BB37" s="148"/>
+      <c r="BC37" s="148"/>
+      <c r="BD37" s="148"/>
+      <c r="BE37" s="148"/>
+      <c r="BF37" s="148"/>
+      <c r="BG37" s="148"/>
+      <c r="BH37" s="148"/>
+      <c r="BI37" s="148"/>
+      <c r="BJ37" s="148"/>
+      <c r="BK37" s="148"/>
+      <c r="BL37" s="148"/>
+      <c r="BM37" s="148"/>
+      <c r="BN37" s="148"/>
+      <c r="BO37" s="149"/>
       <c r="BP37" s="42"/>
     </row>
     <row r="38" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16225,71 +16249,72 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-      <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="13"/>
-      <c r="BA38" s="13"/>
-      <c r="BB38" s="13"/>
-      <c r="BC38" s="13"/>
-      <c r="BD38" s="13"/>
-      <c r="BE38" s="13"/>
-      <c r="BF38" s="13"/>
-      <c r="BG38" s="13"/>
-      <c r="BH38" s="13"/>
-      <c r="BI38" s="13"/>
-      <c r="BJ38" s="13"/>
-      <c r="BK38" s="13"/>
-      <c r="BL38" s="13"/>
-      <c r="BM38" s="13"/>
-      <c r="BN38" s="13"/>
-      <c r="BO38" s="14"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="8"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="8"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="8"/>
+      <c r="BH38" s="8"/>
+      <c r="BI38" s="8"/>
+      <c r="BJ38" s="8"/>
+      <c r="BK38" s="8"/>
+      <c r="BL38" s="8"/>
+      <c r="BM38" s="8"/>
+      <c r="BN38" s="8"/>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="42"/>
     </row>
     <row r="39" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A39" s="21"/>
@@ -16297,71 +16322,71 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="86"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="73"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="149"/>
       <c r="L39" s="85"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="82"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="150"/>
+      <c r="Q39" s="150"/>
+      <c r="R39" s="150"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+      <c r="AB39" s="150"/>
       <c r="AC39" s="86"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="73"/>
-      <c r="AL39" s="104"/>
-      <c r="AM39" s="72"/>
-      <c r="AN39" s="72"/>
-      <c r="AO39" s="72"/>
-      <c r="AP39" s="72"/>
-      <c r="AQ39" s="72"/>
-      <c r="AR39" s="72"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="73"/>
-      <c r="AU39" s="104"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
-      <c r="AX39" s="72"/>
-      <c r="AY39" s="73"/>
-      <c r="AZ39" s="105"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="72"/>
-      <c r="BC39" s="72"/>
-      <c r="BD39" s="72"/>
-      <c r="BE39" s="72"/>
-      <c r="BF39" s="72"/>
-      <c r="BG39" s="72"/>
-      <c r="BH39" s="72"/>
-      <c r="BI39" s="72"/>
-      <c r="BJ39" s="72"/>
-      <c r="BK39" s="72"/>
-      <c r="BL39" s="72"/>
-      <c r="BM39" s="72"/>
-      <c r="BN39" s="72"/>
-      <c r="BO39" s="73"/>
+      <c r="AD39" s="148"/>
+      <c r="AE39" s="148"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="148"/>
+      <c r="AH39" s="148"/>
+      <c r="AI39" s="148"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="149"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="148"/>
+      <c r="AN39" s="148"/>
+      <c r="AO39" s="148"/>
+      <c r="AP39" s="148"/>
+      <c r="AQ39" s="148"/>
+      <c r="AR39" s="148"/>
+      <c r="AS39" s="148"/>
+      <c r="AT39" s="149"/>
+      <c r="AU39" s="71"/>
+      <c r="AV39" s="148"/>
+      <c r="AW39" s="148"/>
+      <c r="AX39" s="148"/>
+      <c r="AY39" s="149"/>
+      <c r="AZ39" s="154"/>
+      <c r="BA39" s="148"/>
+      <c r="BB39" s="148"/>
+      <c r="BC39" s="148"/>
+      <c r="BD39" s="148"/>
+      <c r="BE39" s="148"/>
+      <c r="BF39" s="148"/>
+      <c r="BG39" s="148"/>
+      <c r="BH39" s="148"/>
+      <c r="BI39" s="148"/>
+      <c r="BJ39" s="148"/>
+      <c r="BK39" s="148"/>
+      <c r="BL39" s="148"/>
+      <c r="BM39" s="148"/>
+      <c r="BN39" s="148"/>
+      <c r="BO39" s="149"/>
       <c r="BP39" s="42"/>
     </row>
     <row r="40" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16370,71 +16395,71 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="86"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="73"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="149"/>
       <c r="L40" s="85"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
+      <c r="T40" s="150"/>
+      <c r="U40" s="150"/>
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="150"/>
+      <c r="AA40" s="150"/>
+      <c r="AB40" s="150"/>
       <c r="AC40" s="86"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="73"/>
-      <c r="AL40" s="104"/>
-      <c r="AM40" s="72"/>
-      <c r="AN40" s="72"/>
-      <c r="AO40" s="72"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="72"/>
-      <c r="AR40" s="72"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="73"/>
-      <c r="AU40" s="104"/>
-      <c r="AV40" s="72"/>
-      <c r="AW40" s="72"/>
-      <c r="AX40" s="72"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="105"/>
-      <c r="BA40" s="72"/>
-      <c r="BB40" s="72"/>
-      <c r="BC40" s="72"/>
-      <c r="BD40" s="72"/>
-      <c r="BE40" s="72"/>
-      <c r="BF40" s="72"/>
-      <c r="BG40" s="72"/>
-      <c r="BH40" s="72"/>
-      <c r="BI40" s="72"/>
-      <c r="BJ40" s="72"/>
-      <c r="BK40" s="72"/>
-      <c r="BL40" s="72"/>
-      <c r="BM40" s="72"/>
-      <c r="BN40" s="72"/>
-      <c r="BO40" s="73"/>
+      <c r="AD40" s="148"/>
+      <c r="AE40" s="148"/>
+      <c r="AF40" s="148"/>
+      <c r="AG40" s="148"/>
+      <c r="AH40" s="148"/>
+      <c r="AI40" s="148"/>
+      <c r="AJ40" s="148"/>
+      <c r="AK40" s="149"/>
+      <c r="AL40" s="71"/>
+      <c r="AM40" s="148"/>
+      <c r="AN40" s="148"/>
+      <c r="AO40" s="148"/>
+      <c r="AP40" s="148"/>
+      <c r="AQ40" s="148"/>
+      <c r="AR40" s="148"/>
+      <c r="AS40" s="148"/>
+      <c r="AT40" s="149"/>
+      <c r="AU40" s="71"/>
+      <c r="AV40" s="148"/>
+      <c r="AW40" s="148"/>
+      <c r="AX40" s="148"/>
+      <c r="AY40" s="149"/>
+      <c r="AZ40" s="154"/>
+      <c r="BA40" s="148"/>
+      <c r="BB40" s="148"/>
+      <c r="BC40" s="148"/>
+      <c r="BD40" s="148"/>
+      <c r="BE40" s="148"/>
+      <c r="BF40" s="148"/>
+      <c r="BG40" s="148"/>
+      <c r="BH40" s="148"/>
+      <c r="BI40" s="148"/>
+      <c r="BJ40" s="148"/>
+      <c r="BK40" s="148"/>
+      <c r="BL40" s="148"/>
+      <c r="BM40" s="148"/>
+      <c r="BN40" s="148"/>
+      <c r="BO40" s="149"/>
       <c r="BP40" s="42"/>
     </row>
     <row r="41" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16443,71 +16468,71 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="17"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="17"/>
-      <c r="AY41" s="17"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="17"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-      <c r="BE41" s="17"/>
-      <c r="BF41" s="17"/>
-      <c r="BG41" s="17"/>
-      <c r="BH41" s="17"/>
-      <c r="BI41" s="17"/>
-      <c r="BJ41" s="17"/>
-      <c r="BK41" s="17"/>
-      <c r="BL41" s="17"/>
-      <c r="BM41" s="17"/>
-      <c r="BN41" s="17"/>
-      <c r="BO41" s="18"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="8"/>
+      <c r="BB41" s="8"/>
+      <c r="BC41" s="8"/>
+      <c r="BD41" s="8"/>
+      <c r="BE41" s="8"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="8"/>
+      <c r="BI41" s="8"/>
+      <c r="BJ41" s="8"/>
+      <c r="BK41" s="8"/>
+      <c r="BL41" s="8"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="9"/>
       <c r="BP41" s="42"/>
     </row>
     <row r="42" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16516,145 +16541,144 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="73"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="149"/>
       <c r="L42" s="85"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
+      <c r="M42" s="150"/>
+      <c r="N42" s="150"/>
+      <c r="O42" s="150"/>
+      <c r="P42" s="150"/>
+      <c r="Q42" s="150"/>
+      <c r="R42" s="150"/>
+      <c r="S42" s="150"/>
+      <c r="T42" s="150"/>
+      <c r="U42" s="150"/>
+      <c r="V42" s="150"/>
+      <c r="W42" s="150"/>
+      <c r="X42" s="150"/>
+      <c r="Y42" s="150"/>
+      <c r="Z42" s="150"/>
+      <c r="AA42" s="150"/>
+      <c r="AB42" s="150"/>
       <c r="AC42" s="86"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="72"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="72"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="72"/>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="104"/>
-      <c r="AV42" s="72"/>
-      <c r="AW42" s="72"/>
-      <c r="AX42" s="72"/>
-      <c r="AY42" s="73"/>
-      <c r="AZ42" s="105"/>
-      <c r="BA42" s="72"/>
-      <c r="BB42" s="72"/>
-      <c r="BC42" s="72"/>
-      <c r="BD42" s="72"/>
-      <c r="BE42" s="72"/>
-      <c r="BF42" s="72"/>
-      <c r="BG42" s="72"/>
-      <c r="BH42" s="72"/>
-      <c r="BI42" s="72"/>
-      <c r="BJ42" s="72"/>
-      <c r="BK42" s="72"/>
-      <c r="BL42" s="72"/>
-      <c r="BM42" s="72"/>
-      <c r="BN42" s="72"/>
-      <c r="BO42" s="73"/>
+      <c r="AD42" s="148"/>
+      <c r="AE42" s="148"/>
+      <c r="AF42" s="148"/>
+      <c r="AG42" s="148"/>
+      <c r="AH42" s="148"/>
+      <c r="AI42" s="148"/>
+      <c r="AJ42" s="148"/>
+      <c r="AK42" s="149"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="148"/>
+      <c r="AN42" s="148"/>
+      <c r="AO42" s="148"/>
+      <c r="AP42" s="148"/>
+      <c r="AQ42" s="148"/>
+      <c r="AR42" s="148"/>
+      <c r="AS42" s="148"/>
+      <c r="AT42" s="149"/>
+      <c r="AU42" s="71"/>
+      <c r="AV42" s="148"/>
+      <c r="AW42" s="148"/>
+      <c r="AX42" s="148"/>
+      <c r="AY42" s="149"/>
+      <c r="AZ42" s="154"/>
+      <c r="BA42" s="148"/>
+      <c r="BB42" s="148"/>
+      <c r="BC42" s="148"/>
+      <c r="BD42" s="148"/>
+      <c r="BE42" s="148"/>
+      <c r="BF42" s="148"/>
+      <c r="BG42" s="148"/>
+      <c r="BH42" s="148"/>
+      <c r="BI42" s="148"/>
+      <c r="BJ42" s="148"/>
+      <c r="BK42" s="148"/>
+      <c r="BL42" s="148"/>
+      <c r="BM42" s="148"/>
+      <c r="BN42" s="148"/>
+      <c r="BO42" s="149"/>
       <c r="BP42" s="42"/>
     </row>
     <row r="43" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="64">
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="86"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
-      <c r="AF43" s="72"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="72"/>
-      <c r="AI43" s="72"/>
-      <c r="AJ43" s="72"/>
-      <c r="AK43" s="73"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="72"/>
-      <c r="AN43" s="72"/>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="72"/>
-      <c r="AR43" s="72"/>
-      <c r="AS43" s="72"/>
-      <c r="AT43" s="73"/>
-      <c r="AU43" s="104"/>
-      <c r="AV43" s="72"/>
-      <c r="AW43" s="72"/>
-      <c r="AX43" s="72"/>
-      <c r="AY43" s="73"/>
-      <c r="AZ43" s="105"/>
-      <c r="BA43" s="72"/>
-      <c r="BB43" s="72"/>
-      <c r="BC43" s="72"/>
-      <c r="BD43" s="72"/>
-      <c r="BE43" s="72"/>
-      <c r="BF43" s="72"/>
-      <c r="BG43" s="72"/>
-      <c r="BH43" s="72"/>
-      <c r="BI43" s="72"/>
-      <c r="BJ43" s="72"/>
-      <c r="BK43" s="72"/>
-      <c r="BL43" s="72"/>
-      <c r="BM43" s="72"/>
-      <c r="BN43" s="72"/>
-      <c r="BO43" s="73"/>
-      <c r="BP43" s="42"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="13"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="13"/>
+      <c r="AW43" s="13"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="13"/>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="13"/>
+      <c r="BB43" s="13"/>
+      <c r="BC43" s="13"/>
+      <c r="BD43" s="13"/>
+      <c r="BE43" s="13"/>
+      <c r="BF43" s="13"/>
+      <c r="BG43" s="13"/>
+      <c r="BH43" s="13"/>
+      <c r="BI43" s="13"/>
+      <c r="BJ43" s="13"/>
+      <c r="BK43" s="13"/>
+      <c r="BL43" s="13"/>
+      <c r="BM43" s="13"/>
+      <c r="BN43" s="13"/>
+      <c r="BO43" s="14"/>
     </row>
     <row r="44" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A44" s="21"/>
@@ -16662,71 +16686,71 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="73"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="149"/>
       <c r="L44" s="85"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
+      <c r="M44" s="150"/>
+      <c r="N44" s="150"/>
+      <c r="O44" s="150"/>
+      <c r="P44" s="150"/>
+      <c r="Q44" s="150"/>
+      <c r="R44" s="150"/>
+      <c r="S44" s="150"/>
+      <c r="T44" s="150"/>
+      <c r="U44" s="150"/>
+      <c r="V44" s="150"/>
+      <c r="W44" s="150"/>
+      <c r="X44" s="150"/>
+      <c r="Y44" s="150"/>
+      <c r="Z44" s="150"/>
+      <c r="AA44" s="150"/>
+      <c r="AB44" s="150"/>
       <c r="AC44" s="86"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="72"/>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="104"/>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="72"/>
-      <c r="AQ44" s="72"/>
-      <c r="AR44" s="72"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="73"/>
-      <c r="AU44" s="104"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="72"/>
-      <c r="AX44" s="72"/>
-      <c r="AY44" s="73"/>
-      <c r="AZ44" s="105"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="72"/>
-      <c r="BD44" s="72"/>
-      <c r="BE44" s="72"/>
-      <c r="BF44" s="72"/>
-      <c r="BG44" s="72"/>
-      <c r="BH44" s="72"/>
-      <c r="BI44" s="72"/>
-      <c r="BJ44" s="72"/>
-      <c r="BK44" s="72"/>
-      <c r="BL44" s="72"/>
-      <c r="BM44" s="72"/>
-      <c r="BN44" s="72"/>
-      <c r="BO44" s="73"/>
+      <c r="AD44" s="148"/>
+      <c r="AE44" s="148"/>
+      <c r="AF44" s="148"/>
+      <c r="AG44" s="148"/>
+      <c r="AH44" s="148"/>
+      <c r="AI44" s="148"/>
+      <c r="AJ44" s="148"/>
+      <c r="AK44" s="149"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="148"/>
+      <c r="AN44" s="148"/>
+      <c r="AO44" s="148"/>
+      <c r="AP44" s="148"/>
+      <c r="AQ44" s="148"/>
+      <c r="AR44" s="148"/>
+      <c r="AS44" s="148"/>
+      <c r="AT44" s="149"/>
+      <c r="AU44" s="71"/>
+      <c r="AV44" s="148"/>
+      <c r="AW44" s="148"/>
+      <c r="AX44" s="148"/>
+      <c r="AY44" s="149"/>
+      <c r="AZ44" s="154"/>
+      <c r="BA44" s="148"/>
+      <c r="BB44" s="148"/>
+      <c r="BC44" s="148"/>
+      <c r="BD44" s="148"/>
+      <c r="BE44" s="148"/>
+      <c r="BF44" s="148"/>
+      <c r="BG44" s="148"/>
+      <c r="BH44" s="148"/>
+      <c r="BI44" s="148"/>
+      <c r="BJ44" s="148"/>
+      <c r="BK44" s="148"/>
+      <c r="BL44" s="148"/>
+      <c r="BM44" s="148"/>
+      <c r="BN44" s="148"/>
+      <c r="BO44" s="149"/>
       <c r="BP44" s="42"/>
     </row>
     <row r="45" spans="1:68" ht="16.5" outlineLevel="1">
@@ -16735,742 +16759,747 @@
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="85"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="150"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="150"/>
+      <c r="S45" s="150"/>
+      <c r="T45" s="150"/>
+      <c r="U45" s="150"/>
+      <c r="V45" s="150"/>
+      <c r="W45" s="150"/>
+      <c r="X45" s="150"/>
+      <c r="Y45" s="150"/>
+      <c r="Z45" s="150"/>
+      <c r="AA45" s="150"/>
+      <c r="AB45" s="150"/>
       <c r="AC45" s="86"/>
-      <c r="AD45" s="72"/>
-      <c r="AE45" s="72"/>
-      <c r="AF45" s="72"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
-      <c r="AI45" s="72"/>
-      <c r="AJ45" s="72"/>
-      <c r="AK45" s="73"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="72"/>
-      <c r="AN45" s="72"/>
-      <c r="AO45" s="72"/>
-      <c r="AP45" s="72"/>
-      <c r="AQ45" s="72"/>
-      <c r="AR45" s="72"/>
-      <c r="AS45" s="72"/>
-      <c r="AT45" s="73"/>
-      <c r="AU45" s="104"/>
-      <c r="AV45" s="72"/>
-      <c r="AW45" s="72"/>
-      <c r="AX45" s="72"/>
-      <c r="AY45" s="73"/>
-      <c r="AZ45" s="105"/>
-      <c r="BA45" s="72"/>
-      <c r="BB45" s="72"/>
-      <c r="BC45" s="72"/>
-      <c r="BD45" s="72"/>
-      <c r="BE45" s="72"/>
-      <c r="BF45" s="72"/>
-      <c r="BG45" s="72"/>
-      <c r="BH45" s="72"/>
-      <c r="BI45" s="72"/>
-      <c r="BJ45" s="72"/>
-      <c r="BK45" s="72"/>
-      <c r="BL45" s="72"/>
-      <c r="BM45" s="72"/>
-      <c r="BN45" s="72"/>
-      <c r="BO45" s="73"/>
+      <c r="AD45" s="148"/>
+      <c r="AE45" s="148"/>
+      <c r="AF45" s="148"/>
+      <c r="AG45" s="148"/>
+      <c r="AH45" s="148"/>
+      <c r="AI45" s="148"/>
+      <c r="AJ45" s="148"/>
+      <c r="AK45" s="149"/>
+      <c r="AL45" s="71"/>
+      <c r="AM45" s="148"/>
+      <c r="AN45" s="148"/>
+      <c r="AO45" s="148"/>
+      <c r="AP45" s="148"/>
+      <c r="AQ45" s="148"/>
+      <c r="AR45" s="148"/>
+      <c r="AS45" s="148"/>
+      <c r="AT45" s="149"/>
+      <c r="AU45" s="71"/>
+      <c r="AV45" s="148"/>
+      <c r="AW45" s="148"/>
+      <c r="AX45" s="148"/>
+      <c r="AY45" s="149"/>
+      <c r="AZ45" s="154"/>
+      <c r="BA45" s="148"/>
+      <c r="BB45" s="148"/>
+      <c r="BC45" s="148"/>
+      <c r="BD45" s="148"/>
+      <c r="BE45" s="148"/>
+      <c r="BF45" s="148"/>
+      <c r="BG45" s="148"/>
+      <c r="BH45" s="148"/>
+      <c r="BI45" s="148"/>
+      <c r="BJ45" s="148"/>
+      <c r="BK45" s="148"/>
+      <c r="BL45" s="148"/>
+      <c r="BM45" s="148"/>
+      <c r="BN45" s="148"/>
+      <c r="BO45" s="149"/>
       <c r="BP45" s="42"/>
     </row>
-    <row r="46" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A46" s="42"/>
       <c r="B46" s="64">
         <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+      <c r="BJ46" s="17"/>
+      <c r="BK46" s="17"/>
+      <c r="BL46" s="17"/>
+      <c r="BM46" s="17"/>
+      <c r="BN46" s="17"/>
+      <c r="BO46" s="18"/>
+      <c r="BP46" s="42"/>
+    </row>
+    <row r="47" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="64">
+        <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>18</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="150"/>
+      <c r="P47" s="150"/>
+      <c r="Q47" s="150"/>
+      <c r="R47" s="150"/>
+      <c r="S47" s="150"/>
+      <c r="T47" s="150"/>
+      <c r="U47" s="150"/>
+      <c r="V47" s="150"/>
+      <c r="W47" s="150"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="150"/>
+      <c r="Z47" s="150"/>
+      <c r="AA47" s="150"/>
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="86"/>
+      <c r="AD47" s="148"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="148"/>
+      <c r="AG47" s="148"/>
+      <c r="AH47" s="148"/>
+      <c r="AI47" s="148"/>
+      <c r="AJ47" s="148"/>
+      <c r="AK47" s="149"/>
+      <c r="AL47" s="71"/>
+      <c r="AM47" s="148"/>
+      <c r="AN47" s="148"/>
+      <c r="AO47" s="148"/>
+      <c r="AP47" s="148"/>
+      <c r="AQ47" s="148"/>
+      <c r="AR47" s="148"/>
+      <c r="AS47" s="148"/>
+      <c r="AT47" s="149"/>
+      <c r="AU47" s="71"/>
+      <c r="AV47" s="148"/>
+      <c r="AW47" s="148"/>
+      <c r="AX47" s="148"/>
+      <c r="AY47" s="149"/>
+      <c r="AZ47" s="154"/>
+      <c r="BA47" s="148"/>
+      <c r="BB47" s="148"/>
+      <c r="BC47" s="148"/>
+      <c r="BD47" s="148"/>
+      <c r="BE47" s="148"/>
+      <c r="BF47" s="148"/>
+      <c r="BG47" s="148"/>
+      <c r="BH47" s="148"/>
+      <c r="BI47" s="148"/>
+      <c r="BJ47" s="148"/>
+      <c r="BK47" s="148"/>
+      <c r="BL47" s="148"/>
+      <c r="BM47" s="148"/>
+      <c r="BN47" s="148"/>
+      <c r="BO47" s="149"/>
+      <c r="BP47" s="42"/>
+    </row>
+    <row r="48" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="64">
+        <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>19</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="150"/>
+      <c r="N48" s="150"/>
+      <c r="O48" s="150"/>
+      <c r="P48" s="150"/>
+      <c r="Q48" s="150"/>
+      <c r="R48" s="150"/>
+      <c r="S48" s="150"/>
+      <c r="T48" s="150"/>
+      <c r="U48" s="150"/>
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="150"/>
+      <c r="AA48" s="150"/>
+      <c r="AB48" s="150"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="148"/>
+      <c r="AE48" s="148"/>
+      <c r="AF48" s="148"/>
+      <c r="AG48" s="148"/>
+      <c r="AH48" s="148"/>
+      <c r="AI48" s="148"/>
+      <c r="AJ48" s="148"/>
+      <c r="AK48" s="149"/>
+      <c r="AL48" s="71"/>
+      <c r="AM48" s="148"/>
+      <c r="AN48" s="148"/>
+      <c r="AO48" s="148"/>
+      <c r="AP48" s="148"/>
+      <c r="AQ48" s="148"/>
+      <c r="AR48" s="148"/>
+      <c r="AS48" s="148"/>
+      <c r="AT48" s="149"/>
+      <c r="AU48" s="71"/>
+      <c r="AV48" s="148"/>
+      <c r="AW48" s="148"/>
+      <c r="AX48" s="148"/>
+      <c r="AY48" s="149"/>
+      <c r="AZ48" s="154"/>
+      <c r="BA48" s="148"/>
+      <c r="BB48" s="148"/>
+      <c r="BC48" s="148"/>
+      <c r="BD48" s="148"/>
+      <c r="BE48" s="148"/>
+      <c r="BF48" s="148"/>
+      <c r="BG48" s="148"/>
+      <c r="BH48" s="148"/>
+      <c r="BI48" s="148"/>
+      <c r="BJ48" s="148"/>
+      <c r="BK48" s="148"/>
+      <c r="BL48" s="148"/>
+      <c r="BM48" s="148"/>
+      <c r="BN48" s="148"/>
+      <c r="BO48" s="149"/>
+      <c r="BP48" s="42"/>
+    </row>
+    <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="64">
+        <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>20</v>
+      </c>
+      <c r="C49" s="86"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="150"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="150"/>
+      <c r="P49" s="150"/>
+      <c r="Q49" s="150"/>
+      <c r="R49" s="150"/>
+      <c r="S49" s="150"/>
+      <c r="T49" s="150"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="150"/>
+      <c r="W49" s="150"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="150"/>
+      <c r="Z49" s="150"/>
+      <c r="AA49" s="150"/>
+      <c r="AB49" s="150"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="148"/>
+      <c r="AE49" s="148"/>
+      <c r="AF49" s="148"/>
+      <c r="AG49" s="148"/>
+      <c r="AH49" s="148"/>
+      <c r="AI49" s="148"/>
+      <c r="AJ49" s="148"/>
+      <c r="AK49" s="149"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="148"/>
+      <c r="AN49" s="148"/>
+      <c r="AO49" s="148"/>
+      <c r="AP49" s="148"/>
+      <c r="AQ49" s="148"/>
+      <c r="AR49" s="148"/>
+      <c r="AS49" s="148"/>
+      <c r="AT49" s="149"/>
+      <c r="AU49" s="71"/>
+      <c r="AV49" s="148"/>
+      <c r="AW49" s="148"/>
+      <c r="AX49" s="148"/>
+      <c r="AY49" s="149"/>
+      <c r="AZ49" s="154"/>
+      <c r="BA49" s="148"/>
+      <c r="BB49" s="148"/>
+      <c r="BC49" s="148"/>
+      <c r="BD49" s="148"/>
+      <c r="BE49" s="148"/>
+      <c r="BF49" s="148"/>
+      <c r="BG49" s="148"/>
+      <c r="BH49" s="148"/>
+      <c r="BI49" s="148"/>
+      <c r="BJ49" s="148"/>
+      <c r="BK49" s="148"/>
+      <c r="BL49" s="148"/>
+      <c r="BM49" s="148"/>
+      <c r="BN49" s="148"/>
+      <c r="BO49" s="149"/>
+      <c r="BP49" s="42"/>
+    </row>
+    <row r="50" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="64">
+        <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>21</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="150"/>
+      <c r="O50" s="150"/>
+      <c r="P50" s="150"/>
+      <c r="Q50" s="150"/>
+      <c r="R50" s="150"/>
+      <c r="S50" s="150"/>
+      <c r="T50" s="150"/>
+      <c r="U50" s="150"/>
+      <c r="V50" s="150"/>
+      <c r="W50" s="150"/>
+      <c r="X50" s="150"/>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="150"/>
+      <c r="AA50" s="150"/>
+      <c r="AB50" s="150"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="148"/>
+      <c r="AE50" s="148"/>
+      <c r="AF50" s="148"/>
+      <c r="AG50" s="148"/>
+      <c r="AH50" s="148"/>
+      <c r="AI50" s="148"/>
+      <c r="AJ50" s="148"/>
+      <c r="AK50" s="149"/>
+      <c r="AL50" s="71"/>
+      <c r="AM50" s="148"/>
+      <c r="AN50" s="148"/>
+      <c r="AO50" s="148"/>
+      <c r="AP50" s="148"/>
+      <c r="AQ50" s="148"/>
+      <c r="AR50" s="148"/>
+      <c r="AS50" s="148"/>
+      <c r="AT50" s="149"/>
+      <c r="AU50" s="71"/>
+      <c r="AV50" s="148"/>
+      <c r="AW50" s="148"/>
+      <c r="AX50" s="148"/>
+      <c r="AY50" s="149"/>
+      <c r="AZ50" s="154"/>
+      <c r="BA50" s="148"/>
+      <c r="BB50" s="148"/>
+      <c r="BC50" s="148"/>
+      <c r="BD50" s="148"/>
+      <c r="BE50" s="148"/>
+      <c r="BF50" s="148"/>
+      <c r="BG50" s="148"/>
+      <c r="BH50" s="148"/>
+      <c r="BI50" s="148"/>
+      <c r="BJ50" s="148"/>
+      <c r="BK50" s="148"/>
+      <c r="BL50" s="148"/>
+      <c r="BM50" s="148"/>
+      <c r="BN50" s="148"/>
+      <c r="BO50" s="149"/>
+      <c r="BP50" s="42"/>
+    </row>
+    <row r="51" spans="1:68" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="64">
+        <f ca="1">MAX(B$28:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>22</v>
+      </c>
+      <c r="C51" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="86" t="s">
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="M46" s="100"/>
-      <c r="N46" s="100"/>
-      <c r="O46" s="100"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="100"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
-      <c r="Z46" s="100"/>
-      <c r="AA46" s="100"/>
-      <c r="AB46" s="118"/>
-      <c r="AC46" s="86"/>
-      <c r="AD46" s="72"/>
-      <c r="AE46" s="72"/>
-      <c r="AF46" s="72"/>
-      <c r="AG46" s="72"/>
-      <c r="AH46" s="72"/>
-      <c r="AI46" s="72"/>
-      <c r="AJ46" s="72"/>
-      <c r="AK46" s="73"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="72"/>
-      <c r="AN46" s="72"/>
-      <c r="AO46" s="72"/>
-      <c r="AP46" s="72"/>
-      <c r="AQ46" s="72"/>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="73"/>
-      <c r="AU46" s="104"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72"/>
-      <c r="AY46" s="73"/>
-      <c r="AZ46" s="105"/>
-      <c r="BA46" s="72"/>
-      <c r="BB46" s="72"/>
-      <c r="BC46" s="72"/>
-      <c r="BD46" s="72"/>
-      <c r="BE46" s="72"/>
-      <c r="BF46" s="72"/>
-      <c r="BG46" s="72"/>
-      <c r="BH46" s="72"/>
-      <c r="BI46" s="72"/>
-      <c r="BJ46" s="72"/>
-      <c r="BK46" s="72"/>
-      <c r="BL46" s="72"/>
-      <c r="BM46" s="72"/>
-      <c r="BN46" s="72"/>
-      <c r="BO46" s="73"/>
-      <c r="BP46" s="42"/>
-    </row>
-    <row r="47" spans="1:68" ht="16.5">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="42"/>
-      <c r="AR47" s="42"/>
-      <c r="AS47" s="42"/>
-      <c r="AT47" s="42"/>
-      <c r="AU47" s="42"/>
-      <c r="AV47" s="42"/>
-      <c r="AW47" s="42"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="42"/>
-      <c r="AZ47" s="42"/>
-      <c r="BA47" s="42"/>
-      <c r="BB47" s="42"/>
-      <c r="BC47" s="42"/>
-      <c r="BD47" s="42"/>
-      <c r="BE47" s="42"/>
-      <c r="BF47" s="42"/>
-      <c r="BG47" s="42"/>
-      <c r="BH47" s="42"/>
-      <c r="BI47" s="42"/>
-      <c r="BJ47" s="42"/>
-      <c r="BK47" s="42"/>
-      <c r="BL47" s="42"/>
-      <c r="BM47" s="42"/>
-      <c r="BN47" s="42"/>
-      <c r="BO47" s="42"/>
-      <c r="BP47" s="42"/>
-    </row>
-    <row r="48" spans="1:68" ht="16.5">
-      <c r="A48" s="35" t="str">
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="118"/>
+      <c r="AC51" s="86"/>
+      <c r="AD51" s="148"/>
+      <c r="AE51" s="148"/>
+      <c r="AF51" s="148"/>
+      <c r="AG51" s="148"/>
+      <c r="AH51" s="148"/>
+      <c r="AI51" s="148"/>
+      <c r="AJ51" s="148"/>
+      <c r="AK51" s="149"/>
+      <c r="AL51" s="71"/>
+      <c r="AM51" s="148"/>
+      <c r="AN51" s="148"/>
+      <c r="AO51" s="148"/>
+      <c r="AP51" s="148"/>
+      <c r="AQ51" s="148"/>
+      <c r="AR51" s="148"/>
+      <c r="AS51" s="148"/>
+      <c r="AT51" s="149"/>
+      <c r="AU51" s="71"/>
+      <c r="AV51" s="148"/>
+      <c r="AW51" s="148"/>
+      <c r="AX51" s="148"/>
+      <c r="AY51" s="149"/>
+      <c r="AZ51" s="154"/>
+      <c r="BA51" s="148"/>
+      <c r="BB51" s="148"/>
+      <c r="BC51" s="148"/>
+      <c r="BD51" s="148"/>
+      <c r="BE51" s="148"/>
+      <c r="BF51" s="148"/>
+      <c r="BG51" s="148"/>
+      <c r="BH51" s="148"/>
+      <c r="BI51" s="148"/>
+      <c r="BJ51" s="148"/>
+      <c r="BK51" s="148"/>
+      <c r="BL51" s="148"/>
+      <c r="BM51" s="148"/>
+      <c r="BN51" s="148"/>
+      <c r="BO51" s="149"/>
+      <c r="BP51" s="42"/>
+    </row>
+    <row r="52" spans="1:68" ht="16.5">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="42"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="42"/>
+      <c r="AO52" s="42"/>
+      <c r="AP52" s="42"/>
+      <c r="AQ52" s="42"/>
+      <c r="AR52" s="42"/>
+      <c r="AS52" s="42"/>
+      <c r="AT52" s="42"/>
+      <c r="AU52" s="42"/>
+      <c r="AV52" s="42"/>
+      <c r="AW52" s="42"/>
+      <c r="AX52" s="42"/>
+      <c r="AY52" s="42"/>
+      <c r="AZ52" s="42"/>
+      <c r="BA52" s="42"/>
+      <c r="BB52" s="42"/>
+      <c r="BC52" s="42"/>
+      <c r="BD52" s="42"/>
+      <c r="BE52" s="42"/>
+      <c r="BF52" s="42"/>
+      <c r="BG52" s="42"/>
+      <c r="BH52" s="42"/>
+      <c r="BI52" s="42"/>
+      <c r="BJ52" s="42"/>
+      <c r="BK52" s="42"/>
+      <c r="BL52" s="42"/>
+      <c r="BM52" s="42"/>
+      <c r="BN52" s="42"/>
+      <c r="BO52" s="42"/>
+      <c r="BP52" s="42"/>
+    </row>
+    <row r="53" spans="1:68" ht="16.5">
+      <c r="A53" s="35" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
         <v>2.2.3.DB処理</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="6"/>
-      <c r="AO48" s="6"/>
-      <c r="AP48" s="6"/>
-      <c r="AQ48" s="6"/>
-      <c r="AR48" s="6"/>
-      <c r="AS48" s="6"/>
-      <c r="AT48" s="6"/>
-      <c r="AU48" s="6"/>
-      <c r="AV48" s="6"/>
-      <c r="AW48" s="6"/>
-      <c r="AX48" s="6"/>
-      <c r="AY48" s="6"/>
-      <c r="AZ48" s="6"/>
-      <c r="BA48" s="6"/>
-      <c r="BB48" s="6"/>
-      <c r="BC48" s="6"/>
-      <c r="BD48" s="6"/>
-      <c r="BE48" s="6"/>
-      <c r="BF48" s="6"/>
-      <c r="BG48" s="6"/>
-      <c r="BH48" s="6"/>
-      <c r="BI48" s="6"/>
-      <c r="BJ48" s="6"/>
-      <c r="BK48" s="6"/>
-      <c r="BL48" s="6"/>
-      <c r="BM48" s="6"/>
-      <c r="BN48" s="6"/>
-      <c r="BO48" s="6"/>
-      <c r="BP48" s="6"/>
-    </row>
-    <row r="49" spans="1:68" ht="16.5">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="42"/>
-      <c r="AB49" s="42"/>
-      <c r="AC49" s="42"/>
-      <c r="AD49" s="42"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="42"/>
-      <c r="AL49" s="42"/>
-      <c r="AM49" s="42"/>
-      <c r="AN49" s="42"/>
-      <c r="AO49" s="42"/>
-      <c r="AP49" s="42"/>
-      <c r="AQ49" s="42"/>
-      <c r="AR49" s="42"/>
-      <c r="AS49" s="42"/>
-      <c r="AT49" s="42"/>
-      <c r="AU49" s="42"/>
-      <c r="AV49" s="42"/>
-      <c r="AW49" s="42"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="42"/>
-      <c r="AZ49" s="42"/>
-      <c r="BA49" s="42"/>
-      <c r="BB49" s="42"/>
-      <c r="BC49" s="42"/>
-      <c r="BD49" s="42"/>
-      <c r="BE49" s="42"/>
-      <c r="BF49" s="42"/>
-      <c r="BG49" s="42"/>
-      <c r="BH49" s="42"/>
-      <c r="BI49" s="42"/>
-      <c r="BJ49" s="42"/>
-      <c r="BK49" s="42"/>
-      <c r="BL49" s="42"/>
-      <c r="BM49" s="42"/>
-      <c r="BN49" s="42"/>
-      <c r="BO49" s="42"/>
-      <c r="BP49" s="42"/>
-    </row>
-    <row r="50" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A50" s="109"/>
-      <c r="B50" s="147" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
+      <c r="BL53" s="6"/>
+      <c r="BM53" s="6"/>
+      <c r="BN53" s="6"/>
+      <c r="BO53" s="6"/>
+      <c r="BP53" s="6"/>
+    </row>
+    <row r="54" spans="1:68" ht="16.5">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="42"/>
+      <c r="AO54" s="42"/>
+      <c r="AP54" s="42"/>
+      <c r="AQ54" s="42"/>
+      <c r="AR54" s="42"/>
+      <c r="AS54" s="42"/>
+      <c r="AT54" s="42"/>
+      <c r="AU54" s="42"/>
+      <c r="AV54" s="42"/>
+      <c r="AW54" s="42"/>
+      <c r="AX54" s="42"/>
+      <c r="AY54" s="42"/>
+      <c r="AZ54" s="42"/>
+      <c r="BA54" s="42"/>
+      <c r="BB54" s="42"/>
+      <c r="BC54" s="42"/>
+      <c r="BD54" s="42"/>
+      <c r="BE54" s="42"/>
+      <c r="BF54" s="42"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="42"/>
+      <c r="BI54" s="42"/>
+      <c r="BJ54" s="42"/>
+      <c r="BK54" s="42"/>
+      <c r="BL54" s="42"/>
+      <c r="BM54" s="42"/>
+      <c r="BN54" s="42"/>
+      <c r="BO54" s="42"/>
+      <c r="BP54" s="42"/>
+    </row>
+    <row r="55" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A55" s="109"/>
+      <c r="B55" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
-      <c r="W50" s="109"/>
-      <c r="X50" s="109"/>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="109"/>
-      <c r="AA50" s="109"/>
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="109"/>
-      <c r="AD50" s="109"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="109"/>
-      <c r="AG50" s="109"/>
-      <c r="AH50" s="109"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="109"/>
-      <c r="AK50" s="109"/>
-      <c r="AL50" s="109"/>
-      <c r="AM50" s="109"/>
-      <c r="AN50" s="109"/>
-      <c r="AO50" s="109"/>
-      <c r="AP50" s="109"/>
-      <c r="AQ50" s="109"/>
-      <c r="AR50" s="109"/>
-      <c r="AS50" s="109"/>
-      <c r="AT50" s="109"/>
-      <c r="AU50" s="109"/>
-      <c r="AV50" s="109"/>
-      <c r="AW50" s="109"/>
-      <c r="AX50" s="109"/>
-      <c r="AY50" s="109"/>
-      <c r="AZ50" s="109"/>
-      <c r="BA50" s="109"/>
-      <c r="BB50" s="109"/>
-      <c r="BC50" s="109"/>
-      <c r="BD50" s="109"/>
-      <c r="BE50" s="109"/>
-      <c r="BF50" s="109"/>
-      <c r="BG50" s="109"/>
-      <c r="BH50" s="109"/>
-      <c r="BI50" s="109"/>
-      <c r="BJ50" s="109"/>
-      <c r="BK50" s="109"/>
-      <c r="BL50" s="109"/>
-      <c r="BM50" s="109"/>
-      <c r="BN50" s="109"/>
-      <c r="BO50" s="109"/>
-      <c r="BP50" s="109"/>
-    </row>
-    <row r="51" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A51" s="109"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="150" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="150"/>
-      <c r="P51" s="150"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="109"/>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="109"/>
-      <c r="AA51" s="109"/>
-      <c r="AB51" s="109"/>
-      <c r="AC51" s="109"/>
-      <c r="AD51" s="109"/>
-      <c r="AE51" s="109"/>
-      <c r="AF51" s="109"/>
-      <c r="AG51" s="109"/>
-      <c r="AH51" s="109"/>
-      <c r="AI51" s="109"/>
-      <c r="AJ51" s="109"/>
-      <c r="AK51" s="109"/>
-      <c r="AL51" s="109"/>
-      <c r="AM51" s="109"/>
-      <c r="AN51" s="109"/>
-      <c r="AO51" s="109"/>
-      <c r="AP51" s="109"/>
-      <c r="AQ51" s="109"/>
-      <c r="AR51" s="109"/>
-      <c r="AS51" s="109"/>
-      <c r="AT51" s="109"/>
-      <c r="AU51" s="109"/>
-      <c r="AV51" s="109"/>
-      <c r="AW51" s="109"/>
-      <c r="AX51" s="109"/>
-      <c r="AY51" s="109"/>
-      <c r="AZ51" s="109"/>
-      <c r="BA51" s="109"/>
-      <c r="BB51" s="109"/>
-      <c r="BC51" s="109"/>
-      <c r="BD51" s="109"/>
-      <c r="BE51" s="109"/>
-      <c r="BF51" s="109"/>
-      <c r="BG51" s="109"/>
-      <c r="BH51" s="109"/>
-      <c r="BI51" s="109"/>
-      <c r="BJ51" s="109"/>
-      <c r="BK51" s="109"/>
-      <c r="BL51" s="109"/>
-      <c r="BM51" s="109"/>
-      <c r="BN51" s="109"/>
-      <c r="BO51" s="109"/>
-      <c r="BP51" s="109"/>
-    </row>
-    <row r="52" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A52" s="109"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
-      <c r="N52" s="150"/>
-      <c r="O52" s="150"/>
-      <c r="P52" s="150"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="109"/>
-      <c r="X52" s="109"/>
-      <c r="Y52" s="109"/>
-      <c r="Z52" s="109"/>
-      <c r="AA52" s="109"/>
-      <c r="AB52" s="109"/>
-      <c r="AC52" s="109"/>
-      <c r="AD52" s="109"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="109"/>
-      <c r="AI52" s="109"/>
-      <c r="AJ52" s="109"/>
-      <c r="AK52" s="109"/>
-      <c r="AL52" s="109"/>
-      <c r="AM52" s="109"/>
-      <c r="AN52" s="109"/>
-      <c r="AO52" s="109"/>
-      <c r="AP52" s="109"/>
-      <c r="AQ52" s="109"/>
-      <c r="AR52" s="109"/>
-      <c r="AS52" s="109"/>
-      <c r="AT52" s="109"/>
-      <c r="AU52" s="109"/>
-      <c r="AV52" s="109"/>
-      <c r="AW52" s="109"/>
-      <c r="AX52" s="109"/>
-      <c r="AY52" s="109"/>
-      <c r="AZ52" s="109"/>
-      <c r="BA52" s="109"/>
-      <c r="BB52" s="109"/>
-      <c r="BC52" s="109"/>
-      <c r="BD52" s="109"/>
-      <c r="BE52" s="109"/>
-      <c r="BF52" s="109"/>
-      <c r="BG52" s="109"/>
-      <c r="BH52" s="109"/>
-      <c r="BI52" s="109"/>
-      <c r="BJ52" s="109"/>
-      <c r="BK52" s="109"/>
-      <c r="BL52" s="109"/>
-      <c r="BM52" s="109"/>
-      <c r="BN52" s="109"/>
-      <c r="BO52" s="109"/>
-      <c r="BP52" s="109"/>
-    </row>
-    <row r="53" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A53" s="109"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="150" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="150"/>
-      <c r="N53" s="150"/>
-      <c r="O53" s="150"/>
-      <c r="P53" s="150"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="109"/>
-      <c r="W53" s="109"/>
-      <c r="X53" s="109"/>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="109"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="109"/>
-      <c r="AD53" s="109"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
-      <c r="AH53" s="109"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="109"/>
-      <c r="AK53" s="109"/>
-      <c r="AL53" s="109"/>
-      <c r="AM53" s="109"/>
-      <c r="AN53" s="109"/>
-      <c r="AO53" s="109"/>
-      <c r="AP53" s="109"/>
-      <c r="AQ53" s="109"/>
-      <c r="AR53" s="109"/>
-      <c r="AS53" s="109"/>
-      <c r="AT53" s="109"/>
-      <c r="AU53" s="109"/>
-      <c r="AV53" s="109"/>
-      <c r="AW53" s="109"/>
-      <c r="AX53" s="109"/>
-      <c r="AY53" s="109"/>
-      <c r="AZ53" s="109"/>
-      <c r="BA53" s="109"/>
-      <c r="BB53" s="109"/>
-      <c r="BC53" s="109"/>
-      <c r="BD53" s="109"/>
-      <c r="BE53" s="109"/>
-      <c r="BF53" s="109"/>
-      <c r="BG53" s="109"/>
-      <c r="BH53" s="109"/>
-      <c r="BI53" s="109"/>
-      <c r="BJ53" s="109"/>
-      <c r="BK53" s="109"/>
-      <c r="BL53" s="109"/>
-      <c r="BM53" s="109"/>
-      <c r="BN53" s="109"/>
-      <c r="BO53" s="109"/>
-      <c r="BP53" s="109"/>
-    </row>
-    <row r="54" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A54" s="109"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="E54" s="150"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
-      <c r="N54" s="150"/>
-      <c r="O54" s="150"/>
-      <c r="P54" s="150"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
-      <c r="V54" s="109"/>
-      <c r="W54" s="109"/>
-      <c r="X54" s="109"/>
-      <c r="Y54" s="109"/>
-      <c r="Z54" s="109"/>
-      <c r="AA54" s="109"/>
-      <c r="AB54" s="109"/>
-      <c r="AC54" s="109"/>
-      <c r="AD54" s="109"/>
-      <c r="AE54" s="109"/>
-      <c r="AF54" s="109"/>
-      <c r="AG54" s="109"/>
-      <c r="AH54" s="109"/>
-      <c r="AI54" s="109"/>
-      <c r="AJ54" s="109"/>
-      <c r="AK54" s="109"/>
-      <c r="AL54" s="109"/>
-      <c r="AM54" s="109"/>
-      <c r="AN54" s="109"/>
-      <c r="AO54" s="109"/>
-      <c r="AP54" s="109"/>
-      <c r="AQ54" s="109"/>
-      <c r="AR54" s="109"/>
-      <c r="AS54" s="109"/>
-      <c r="AT54" s="109"/>
-      <c r="AU54" s="109"/>
-      <c r="AV54" s="109"/>
-      <c r="AW54" s="109"/>
-      <c r="AX54" s="109"/>
-      <c r="AY54" s="109"/>
-      <c r="AZ54" s="109"/>
-      <c r="BA54" s="109"/>
-      <c r="BB54" s="109"/>
-      <c r="BC54" s="109"/>
-      <c r="BD54" s="109"/>
-      <c r="BE54" s="109"/>
-      <c r="BF54" s="109"/>
-      <c r="BG54" s="109"/>
-      <c r="BH54" s="109"/>
-      <c r="BI54" s="109"/>
-      <c r="BJ54" s="109"/>
-      <c r="BK54" s="109"/>
-      <c r="BL54" s="109"/>
-      <c r="BM54" s="109"/>
-      <c r="BN54" s="109"/>
-      <c r="BO54" s="109"/>
-      <c r="BP54" s="109"/>
-    </row>
-    <row r="55" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A55" s="109"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
-      <c r="N55" s="150"/>
-      <c r="O55" s="150"/>
-      <c r="P55" s="150"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
       <c r="Q55" s="109"/>
       <c r="R55" s="109"/>
       <c r="S55" s="109"/>
@@ -17524,25 +17553,25 @@
       <c r="BO55" s="109"/>
       <c r="BP55" s="109"/>
     </row>
-    <row r="56" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="56" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A56" s="109"/>
-      <c r="B56" s="149"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150" t="s">
-        <v>183</v>
+      <c r="B56" s="146"/>
+      <c r="C56" s="147" t="s">
+        <v>21</v>
       </c>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
       <c r="Q56" s="109"/>
       <c r="R56" s="109"/>
       <c r="S56" s="109"/>
@@ -17596,25 +17625,25 @@
       <c r="BO56" s="109"/>
       <c r="BP56" s="109"/>
     </row>
-    <row r="57" spans="1:68" s="148" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="57" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A57" s="109"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="150" t="s">
-        <v>184</v>
+      <c r="B57" s="146"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147" t="s">
+        <v>22</v>
       </c>
-      <c r="D57" s="150"/>
-      <c r="E57" s="150"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="147"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="109"/>
       <c r="S57" s="109"/>
@@ -17668,512 +17697,514 @@
       <c r="BO57" s="109"/>
       <c r="BP57" s="109"/>
     </row>
-    <row r="58" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-      <c r="AH58" s="42"/>
-      <c r="AI58" s="42"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-      <c r="BM58" s="42"/>
-      <c r="BN58" s="42"/>
-      <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-    </row>
-    <row r="59" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="22" t="s">
-        <v>16</v>
+    <row r="58" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A58" s="109"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="147" t="s">
+        <v>23</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="66"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="66"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="66"/>
-      <c r="AF59" s="66"/>
-      <c r="AG59" s="66"/>
-      <c r="AH59" s="66"/>
-      <c r="AI59" s="66"/>
-      <c r="AJ59" s="66"/>
-      <c r="AK59" s="66"/>
-      <c r="AL59" s="66"/>
-      <c r="AM59" s="66"/>
-      <c r="AN59" s="66"/>
-      <c r="AO59" s="66"/>
-      <c r="AP59" s="66"/>
-      <c r="AQ59" s="66"/>
-      <c r="AR59" s="66"/>
-      <c r="AS59" s="66"/>
-      <c r="AT59" s="66"/>
-      <c r="AU59" s="66"/>
-      <c r="AV59" s="66"/>
-      <c r="AW59" s="66"/>
-      <c r="AX59" s="66"/>
-      <c r="AY59" s="66"/>
-      <c r="AZ59" s="66"/>
-      <c r="BA59" s="66"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-      <c r="BM59" s="42"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-    </row>
-    <row r="60" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="96" t="s">
-        <v>17</v>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="147"/>
+      <c r="G58" s="147"/>
+      <c r="H58" s="147"/>
+      <c r="I58" s="147"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="147"/>
+      <c r="L58" s="147"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="109"/>
+      <c r="AF58" s="109"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="109"/>
+      <c r="AI58" s="109"/>
+      <c r="AJ58" s="109"/>
+      <c r="AK58" s="109"/>
+      <c r="AL58" s="109"/>
+      <c r="AM58" s="109"/>
+      <c r="AN58" s="109"/>
+      <c r="AO58" s="109"/>
+      <c r="AP58" s="109"/>
+      <c r="AQ58" s="109"/>
+      <c r="AR58" s="109"/>
+      <c r="AS58" s="109"/>
+      <c r="AT58" s="109"/>
+      <c r="AU58" s="109"/>
+      <c r="AV58" s="109"/>
+      <c r="AW58" s="109"/>
+      <c r="AX58" s="109"/>
+      <c r="AY58" s="109"/>
+      <c r="AZ58" s="109"/>
+      <c r="BA58" s="109"/>
+      <c r="BB58" s="109"/>
+      <c r="BC58" s="109"/>
+      <c r="BD58" s="109"/>
+      <c r="BE58" s="109"/>
+      <c r="BF58" s="109"/>
+      <c r="BG58" s="109"/>
+      <c r="BH58" s="109"/>
+      <c r="BI58" s="109"/>
+      <c r="BJ58" s="109"/>
+      <c r="BK58" s="109"/>
+      <c r="BL58" s="109"/>
+      <c r="BM58" s="109"/>
+      <c r="BN58" s="109"/>
+      <c r="BO58" s="109"/>
+      <c r="BP58" s="109"/>
+    </row>
+    <row r="59" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A59" s="109"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147" t="s">
+        <v>181</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="96" t="s">
-        <v>6</v>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="147"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="109"/>
+      <c r="AF59" s="109"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
+      <c r="AI59" s="109"/>
+      <c r="AJ59" s="109"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="109"/>
+      <c r="AM59" s="109"/>
+      <c r="AN59" s="109"/>
+      <c r="AO59" s="109"/>
+      <c r="AP59" s="109"/>
+      <c r="AQ59" s="109"/>
+      <c r="AR59" s="109"/>
+      <c r="AS59" s="109"/>
+      <c r="AT59" s="109"/>
+      <c r="AU59" s="109"/>
+      <c r="AV59" s="109"/>
+      <c r="AW59" s="109"/>
+      <c r="AX59" s="109"/>
+      <c r="AY59" s="109"/>
+      <c r="AZ59" s="109"/>
+      <c r="BA59" s="109"/>
+      <c r="BB59" s="109"/>
+      <c r="BC59" s="109"/>
+      <c r="BD59" s="109"/>
+      <c r="BE59" s="109"/>
+      <c r="BF59" s="109"/>
+      <c r="BG59" s="109"/>
+      <c r="BH59" s="109"/>
+      <c r="BI59" s="109"/>
+      <c r="BJ59" s="109"/>
+      <c r="BK59" s="109"/>
+      <c r="BL59" s="109"/>
+      <c r="BM59" s="109"/>
+      <c r="BN59" s="109"/>
+      <c r="BO59" s="109"/>
+      <c r="BP59" s="109"/>
+    </row>
+    <row r="60" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A60" s="109"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="147" t="s">
+        <v>182</v>
       </c>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="73"/>
-      <c r="W60" s="96" t="s">
-        <v>18</v>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="147"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="147"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="109"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="109"/>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="109"/>
+      <c r="AF60" s="109"/>
+      <c r="AG60" s="109"/>
+      <c r="AH60" s="109"/>
+      <c r="AI60" s="109"/>
+      <c r="AJ60" s="109"/>
+      <c r="AK60" s="109"/>
+      <c r="AL60" s="109"/>
+      <c r="AM60" s="109"/>
+      <c r="AN60" s="109"/>
+      <c r="AO60" s="109"/>
+      <c r="AP60" s="109"/>
+      <c r="AQ60" s="109"/>
+      <c r="AR60" s="109"/>
+      <c r="AS60" s="109"/>
+      <c r="AT60" s="109"/>
+      <c r="AU60" s="109"/>
+      <c r="AV60" s="109"/>
+      <c r="AW60" s="109"/>
+      <c r="AX60" s="109"/>
+      <c r="AY60" s="109"/>
+      <c r="AZ60" s="109"/>
+      <c r="BA60" s="109"/>
+      <c r="BB60" s="109"/>
+      <c r="BC60" s="109"/>
+      <c r="BD60" s="109"/>
+      <c r="BE60" s="109"/>
+      <c r="BF60" s="109"/>
+      <c r="BG60" s="109"/>
+      <c r="BH60" s="109"/>
+      <c r="BI60" s="109"/>
+      <c r="BJ60" s="109"/>
+      <c r="BK60" s="109"/>
+      <c r="BL60" s="109"/>
+      <c r="BM60" s="109"/>
+      <c r="BN60" s="109"/>
+      <c r="BO60" s="109"/>
+      <c r="BP60" s="109"/>
+    </row>
+    <row r="61" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A61" s="109"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147" t="s">
+        <v>183</v>
       </c>
-      <c r="X60" s="72"/>
-      <c r="Y60" s="72"/>
-      <c r="Z60" s="72"/>
-      <c r="AA60" s="72"/>
-      <c r="AB60" s="72"/>
-      <c r="AC60" s="72"/>
-      <c r="AD60" s="72"/>
-      <c r="AE60" s="72"/>
-      <c r="AF60" s="72"/>
-      <c r="AG60" s="72"/>
-      <c r="AH60" s="72"/>
-      <c r="AI60" s="72"/>
-      <c r="AJ60" s="72"/>
-      <c r="AK60" s="72"/>
-      <c r="AL60" s="72"/>
-      <c r="AM60" s="72"/>
-      <c r="AN60" s="72"/>
-      <c r="AO60" s="73"/>
-      <c r="AP60" s="96" t="s">
-        <v>19</v>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="147"/>
+      <c r="P61" s="147"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="109"/>
+      <c r="V61" s="109"/>
+      <c r="W61" s="109"/>
+      <c r="X61" s="109"/>
+      <c r="Y61" s="109"/>
+      <c r="Z61" s="109"/>
+      <c r="AA61" s="109"/>
+      <c r="AB61" s="109"/>
+      <c r="AC61" s="109"/>
+      <c r="AD61" s="109"/>
+      <c r="AE61" s="109"/>
+      <c r="AF61" s="109"/>
+      <c r="AG61" s="109"/>
+      <c r="AH61" s="109"/>
+      <c r="AI61" s="109"/>
+      <c r="AJ61" s="109"/>
+      <c r="AK61" s="109"/>
+      <c r="AL61" s="109"/>
+      <c r="AM61" s="109"/>
+      <c r="AN61" s="109"/>
+      <c r="AO61" s="109"/>
+      <c r="AP61" s="109"/>
+      <c r="AQ61" s="109"/>
+      <c r="AR61" s="109"/>
+      <c r="AS61" s="109"/>
+      <c r="AT61" s="109"/>
+      <c r="AU61" s="109"/>
+      <c r="AV61" s="109"/>
+      <c r="AW61" s="109"/>
+      <c r="AX61" s="109"/>
+      <c r="AY61" s="109"/>
+      <c r="AZ61" s="109"/>
+      <c r="BA61" s="109"/>
+      <c r="BB61" s="109"/>
+      <c r="BC61" s="109"/>
+      <c r="BD61" s="109"/>
+      <c r="BE61" s="109"/>
+      <c r="BF61" s="109"/>
+      <c r="BG61" s="109"/>
+      <c r="BH61" s="109"/>
+      <c r="BI61" s="109"/>
+      <c r="BJ61" s="109"/>
+      <c r="BK61" s="109"/>
+      <c r="BL61" s="109"/>
+      <c r="BM61" s="109"/>
+      <c r="BN61" s="109"/>
+      <c r="BO61" s="109"/>
+      <c r="BP61" s="109"/>
+    </row>
+    <row r="62" spans="1:68" s="145" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A62" s="109"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="147" t="s">
+        <v>184</v>
       </c>
-      <c r="AQ60" s="72"/>
-      <c r="AR60" s="72"/>
-      <c r="AS60" s="72"/>
-      <c r="AT60" s="72"/>
-      <c r="AU60" s="72"/>
-      <c r="AV60" s="72"/>
-      <c r="AW60" s="72"/>
-      <c r="AX60" s="72"/>
-      <c r="AY60" s="72"/>
-      <c r="AZ60" s="72"/>
-      <c r="BA60" s="73"/>
-      <c r="BB60" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC60" s="72"/>
-      <c r="BD60" s="72"/>
-      <c r="BE60" s="72"/>
-      <c r="BF60" s="72"/>
-      <c r="BG60" s="72"/>
-      <c r="BH60" s="72"/>
-      <c r="BI60" s="72"/>
-      <c r="BJ60" s="72"/>
-      <c r="BK60" s="72"/>
-      <c r="BL60" s="72"/>
-      <c r="BM60" s="72"/>
-      <c r="BN60" s="72"/>
-      <c r="BO60" s="73"/>
-      <c r="BP60" s="42"/>
-    </row>
-    <row r="61" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="85"/>
-      <c r="X61" s="82"/>
-      <c r="Y61" s="82"/>
-      <c r="Z61" s="82"/>
-      <c r="AA61" s="82"/>
-      <c r="AB61" s="82"/>
-      <c r="AC61" s="82"/>
-      <c r="AD61" s="82"/>
-      <c r="AE61" s="82"/>
-      <c r="AF61" s="82"/>
-      <c r="AG61" s="82"/>
-      <c r="AH61" s="82"/>
-      <c r="AI61" s="82"/>
-      <c r="AJ61" s="82"/>
-      <c r="AK61" s="82"/>
-      <c r="AL61" s="82"/>
-      <c r="AM61" s="82"/>
-      <c r="AN61" s="82"/>
-      <c r="AO61" s="83"/>
-      <c r="AP61" s="86"/>
-      <c r="AQ61" s="72"/>
-      <c r="AR61" s="72"/>
-      <c r="AS61" s="72"/>
-      <c r="AT61" s="72"/>
-      <c r="AU61" s="72"/>
-      <c r="AV61" s="72"/>
-      <c r="AW61" s="72"/>
-      <c r="AX61" s="72"/>
-      <c r="AY61" s="72"/>
-      <c r="AZ61" s="72"/>
-      <c r="BA61" s="73"/>
-      <c r="BB61" s="97"/>
-      <c r="BC61" s="72"/>
-      <c r="BD61" s="72"/>
-      <c r="BE61" s="72"/>
-      <c r="BF61" s="72"/>
-      <c r="BG61" s="72"/>
-      <c r="BH61" s="72"/>
-      <c r="BI61" s="72"/>
-      <c r="BJ61" s="72"/>
-      <c r="BK61" s="72"/>
-      <c r="BL61" s="72"/>
-      <c r="BM61" s="72"/>
-      <c r="BN61" s="72"/>
-      <c r="BO61" s="73"/>
-      <c r="BP61" s="42"/>
-    </row>
-    <row r="62" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="72"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="73"/>
-      <c r="W62" s="85"/>
-      <c r="X62" s="82"/>
-      <c r="Y62" s="82"/>
-      <c r="Z62" s="82"/>
-      <c r="AA62" s="82"/>
-      <c r="AB62" s="82"/>
-      <c r="AC62" s="82"/>
-      <c r="AD62" s="82"/>
-      <c r="AE62" s="82"/>
-      <c r="AF62" s="82"/>
-      <c r="AG62" s="82"/>
-      <c r="AH62" s="82"/>
-      <c r="AI62" s="82"/>
-      <c r="AJ62" s="82"/>
-      <c r="AK62" s="82"/>
-      <c r="AL62" s="82"/>
-      <c r="AM62" s="82"/>
-      <c r="AN62" s="82"/>
-      <c r="AO62" s="83"/>
-      <c r="AP62" s="86"/>
-      <c r="AQ62" s="72"/>
-      <c r="AR62" s="72"/>
-      <c r="AS62" s="72"/>
-      <c r="AT62" s="72"/>
-      <c r="AU62" s="72"/>
-      <c r="AV62" s="72"/>
-      <c r="AW62" s="72"/>
-      <c r="AX62" s="72"/>
-      <c r="AY62" s="72"/>
-      <c r="AZ62" s="72"/>
-      <c r="BA62" s="73"/>
-      <c r="BB62" s="97"/>
-      <c r="BC62" s="72"/>
-      <c r="BD62" s="72"/>
-      <c r="BE62" s="72"/>
-      <c r="BF62" s="72"/>
-      <c r="BG62" s="72"/>
-      <c r="BH62" s="72"/>
-      <c r="BI62" s="72"/>
-      <c r="BJ62" s="72"/>
-      <c r="BK62" s="72"/>
-      <c r="BL62" s="72"/>
-      <c r="BM62" s="72"/>
-      <c r="BN62" s="72"/>
-      <c r="BO62" s="73"/>
-      <c r="BP62" s="42"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="147"/>
+      <c r="P62" s="147"/>
+      <c r="Q62" s="109"/>
+      <c r="R62" s="109"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="109"/>
+      <c r="U62" s="109"/>
+      <c r="V62" s="109"/>
+      <c r="W62" s="109"/>
+      <c r="X62" s="109"/>
+      <c r="Y62" s="109"/>
+      <c r="Z62" s="109"/>
+      <c r="AA62" s="109"/>
+      <c r="AB62" s="109"/>
+      <c r="AC62" s="109"/>
+      <c r="AD62" s="109"/>
+      <c r="AE62" s="109"/>
+      <c r="AF62" s="109"/>
+      <c r="AG62" s="109"/>
+      <c r="AH62" s="109"/>
+      <c r="AI62" s="109"/>
+      <c r="AJ62" s="109"/>
+      <c r="AK62" s="109"/>
+      <c r="AL62" s="109"/>
+      <c r="AM62" s="109"/>
+      <c r="AN62" s="109"/>
+      <c r="AO62" s="109"/>
+      <c r="AP62" s="109"/>
+      <c r="AQ62" s="109"/>
+      <c r="AR62" s="109"/>
+      <c r="AS62" s="109"/>
+      <c r="AT62" s="109"/>
+      <c r="AU62" s="109"/>
+      <c r="AV62" s="109"/>
+      <c r="AW62" s="109"/>
+      <c r="AX62" s="109"/>
+      <c r="AY62" s="109"/>
+      <c r="AZ62" s="109"/>
+      <c r="BA62" s="109"/>
+      <c r="BB62" s="109"/>
+      <c r="BC62" s="109"/>
+      <c r="BD62" s="109"/>
+      <c r="BE62" s="109"/>
+      <c r="BF62" s="109"/>
+      <c r="BG62" s="109"/>
+      <c r="BH62" s="109"/>
+      <c r="BI62" s="109"/>
+      <c r="BJ62" s="109"/>
+      <c r="BK62" s="109"/>
+      <c r="BL62" s="109"/>
+      <c r="BM62" s="109"/>
+      <c r="BN62" s="109"/>
+      <c r="BO62" s="109"/>
+      <c r="BP62" s="109"/>
     </row>
     <row r="63" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="72"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="86"/>
-      <c r="N63" s="72"/>
-      <c r="O63" s="72"/>
-      <c r="P63" s="72"/>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="72"/>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="73"/>
-      <c r="W63" s="85"/>
-      <c r="X63" s="82"/>
-      <c r="Y63" s="82"/>
-      <c r="Z63" s="82"/>
-      <c r="AA63" s="82"/>
-      <c r="AB63" s="82"/>
-      <c r="AC63" s="82"/>
-      <c r="AD63" s="82"/>
-      <c r="AE63" s="82"/>
-      <c r="AF63" s="82"/>
-      <c r="AG63" s="82"/>
-      <c r="AH63" s="82"/>
-      <c r="AI63" s="82"/>
-      <c r="AJ63" s="82"/>
-      <c r="AK63" s="82"/>
-      <c r="AL63" s="82"/>
-      <c r="AM63" s="82"/>
-      <c r="AN63" s="82"/>
-      <c r="AO63" s="83"/>
-      <c r="AP63" s="86"/>
-      <c r="AQ63" s="72"/>
-      <c r="AR63" s="72"/>
-      <c r="AS63" s="72"/>
-      <c r="AT63" s="72"/>
-      <c r="AU63" s="72"/>
-      <c r="AV63" s="72"/>
-      <c r="AW63" s="72"/>
-      <c r="AX63" s="72"/>
-      <c r="AY63" s="72"/>
-      <c r="AZ63" s="72"/>
-      <c r="BA63" s="73"/>
-      <c r="BB63" s="97"/>
-      <c r="BC63" s="72"/>
-      <c r="BD63" s="72"/>
-      <c r="BE63" s="72"/>
-      <c r="BF63" s="72"/>
-      <c r="BG63" s="72"/>
-      <c r="BH63" s="72"/>
-      <c r="BI63" s="72"/>
-      <c r="BJ63" s="72"/>
-      <c r="BK63" s="72"/>
-      <c r="BL63" s="72"/>
-      <c r="BM63" s="72"/>
-      <c r="BN63" s="72"/>
-      <c r="BO63" s="73"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="42"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="42"/>
+      <c r="AH63" s="42"/>
+      <c r="AI63" s="42"/>
+      <c r="AJ63" s="42"/>
+      <c r="AK63" s="42"/>
+      <c r="AL63" s="42"/>
+      <c r="AM63" s="42"/>
+      <c r="AN63" s="42"/>
+      <c r="AO63" s="42"/>
+      <c r="AP63" s="42"/>
+      <c r="AQ63" s="42"/>
+      <c r="AR63" s="42"/>
+      <c r="AS63" s="42"/>
+      <c r="AT63" s="42"/>
+      <c r="AU63" s="42"/>
+      <c r="AV63" s="42"/>
+      <c r="AW63" s="42"/>
+      <c r="AX63" s="42"/>
+      <c r="AY63" s="42"/>
+      <c r="AZ63" s="42"/>
+      <c r="BA63" s="42"/>
+      <c r="BB63" s="42"/>
+      <c r="BC63" s="42"/>
+      <c r="BD63" s="42"/>
+      <c r="BE63" s="42"/>
+      <c r="BF63" s="42"/>
+      <c r="BG63" s="42"/>
+      <c r="BH63" s="42"/>
+      <c r="BI63" s="42"/>
+      <c r="BJ63" s="42"/>
+      <c r="BK63" s="42"/>
+      <c r="BL63" s="42"/>
+      <c r="BM63" s="42"/>
+      <c r="BN63" s="42"/>
+      <c r="BO63" s="42"/>
       <c r="BP63" s="42"/>
     </row>
     <row r="64" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="86"/>
-      <c r="N64" s="72"/>
-      <c r="O64" s="72"/>
-      <c r="P64" s="72"/>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="73"/>
-      <c r="W64" s="85"/>
-      <c r="X64" s="82"/>
-      <c r="Y64" s="82"/>
-      <c r="Z64" s="82"/>
-      <c r="AA64" s="82"/>
-      <c r="AB64" s="82"/>
-      <c r="AC64" s="82"/>
-      <c r="AD64" s="82"/>
-      <c r="AE64" s="82"/>
-      <c r="AF64" s="82"/>
-      <c r="AG64" s="82"/>
-      <c r="AH64" s="82"/>
-      <c r="AI64" s="82"/>
-      <c r="AJ64" s="82"/>
-      <c r="AK64" s="82"/>
-      <c r="AL64" s="82"/>
-      <c r="AM64" s="82"/>
-      <c r="AN64" s="82"/>
-      <c r="AO64" s="83"/>
-      <c r="AP64" s="86"/>
-      <c r="AQ64" s="72"/>
-      <c r="AR64" s="72"/>
-      <c r="AS64" s="72"/>
-      <c r="AT64" s="72"/>
-      <c r="AU64" s="72"/>
-      <c r="AV64" s="72"/>
-      <c r="AW64" s="72"/>
-      <c r="AX64" s="72"/>
-      <c r="AY64" s="72"/>
-      <c r="AZ64" s="72"/>
-      <c r="BA64" s="73"/>
-      <c r="BB64" s="97"/>
-      <c r="BC64" s="72"/>
-      <c r="BD64" s="72"/>
-      <c r="BE64" s="72"/>
-      <c r="BF64" s="72"/>
-      <c r="BG64" s="72"/>
-      <c r="BH64" s="72"/>
-      <c r="BI64" s="72"/>
-      <c r="BJ64" s="72"/>
-      <c r="BK64" s="72"/>
-      <c r="BL64" s="72"/>
-      <c r="BM64" s="72"/>
-      <c r="BN64" s="72"/>
-      <c r="BO64" s="73"/>
+      <c r="B64" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="66"/>
+      <c r="AI64" s="66"/>
+      <c r="AJ64" s="66"/>
+      <c r="AK64" s="66"/>
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="66"/>
+      <c r="AN64" s="66"/>
+      <c r="AO64" s="66"/>
+      <c r="AP64" s="66"/>
+      <c r="AQ64" s="66"/>
+      <c r="AR64" s="66"/>
+      <c r="AS64" s="66"/>
+      <c r="AT64" s="66"/>
+      <c r="AU64" s="66"/>
+      <c r="AV64" s="66"/>
+      <c r="AW64" s="66"/>
+      <c r="AX64" s="66"/>
+      <c r="AY64" s="66"/>
+      <c r="AZ64" s="66"/>
+      <c r="BA64" s="66"/>
+      <c r="BB64" s="42"/>
+      <c r="BC64" s="42"/>
+      <c r="BD64" s="42"/>
+      <c r="BE64" s="42"/>
+      <c r="BF64" s="42"/>
+      <c r="BG64" s="42"/>
+      <c r="BH64" s="42"/>
+      <c r="BI64" s="42"/>
+      <c r="BJ64" s="42"/>
+      <c r="BK64" s="42"/>
+      <c r="BL64" s="42"/>
+      <c r="BM64" s="42"/>
+      <c r="BN64" s="42"/>
+      <c r="BO64" s="42"/>
       <c r="BP64" s="42"/>
     </row>
     <row r="65" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
-      <c r="C65" s="86"/>
+      <c r="C65" s="96" t="s">
+        <v>17</v>
+      </c>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
@@ -18183,7 +18214,9 @@
       <c r="J65" s="72"/>
       <c r="K65" s="72"/>
       <c r="L65" s="73"/>
-      <c r="M65" s="86"/>
+      <c r="M65" s="96" t="s">
+        <v>6</v>
+      </c>
       <c r="N65" s="72"/>
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
@@ -18193,26 +18226,30 @@
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
       <c r="V65" s="73"/>
-      <c r="W65" s="85"/>
-      <c r="X65" s="82"/>
-      <c r="Y65" s="82"/>
-      <c r="Z65" s="82"/>
-      <c r="AA65" s="82"/>
-      <c r="AB65" s="82"/>
-      <c r="AC65" s="82"/>
-      <c r="AD65" s="82"/>
-      <c r="AE65" s="82"/>
-      <c r="AF65" s="82"/>
-      <c r="AG65" s="82"/>
-      <c r="AH65" s="82"/>
-      <c r="AI65" s="82"/>
-      <c r="AJ65" s="82"/>
-      <c r="AK65" s="82"/>
-      <c r="AL65" s="82"/>
-      <c r="AM65" s="82"/>
-      <c r="AN65" s="82"/>
-      <c r="AO65" s="83"/>
-      <c r="AP65" s="86"/>
+      <c r="W65" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="X65" s="72"/>
+      <c r="Y65" s="72"/>
+      <c r="Z65" s="72"/>
+      <c r="AA65" s="72"/>
+      <c r="AB65" s="72"/>
+      <c r="AC65" s="72"/>
+      <c r="AD65" s="72"/>
+      <c r="AE65" s="72"/>
+      <c r="AF65" s="72"/>
+      <c r="AG65" s="72"/>
+      <c r="AH65" s="72"/>
+      <c r="AI65" s="72"/>
+      <c r="AJ65" s="72"/>
+      <c r="AK65" s="72"/>
+      <c r="AL65" s="72"/>
+      <c r="AM65" s="72"/>
+      <c r="AN65" s="72"/>
+      <c r="AO65" s="73"/>
+      <c r="AP65" s="96" t="s">
+        <v>19</v>
+      </c>
       <c r="AQ65" s="72"/>
       <c r="AR65" s="72"/>
       <c r="AS65" s="72"/>
@@ -18224,7 +18261,9 @@
       <c r="AY65" s="72"/>
       <c r="AZ65" s="72"/>
       <c r="BA65" s="73"/>
-      <c r="BB65" s="97"/>
+      <c r="BB65" s="96" t="s">
+        <v>6</v>
+      </c>
       <c r="BC65" s="72"/>
       <c r="BD65" s="72"/>
       <c r="BE65" s="72"/>
@@ -18313,400 +18352,390 @@
     <row r="67" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="42"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42"/>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
-      <c r="AS67" s="42"/>
-      <c r="AT67" s="42"/>
-      <c r="AU67" s="42"/>
-      <c r="AV67" s="42"/>
-      <c r="AW67" s="42"/>
-      <c r="AX67" s="42"/>
-      <c r="AY67" s="42"/>
-      <c r="AZ67" s="42"/>
-      <c r="BA67" s="42"/>
-      <c r="BB67" s="42"/>
-      <c r="BC67" s="42"/>
-      <c r="BD67" s="42"/>
-      <c r="BE67" s="42"/>
-      <c r="BF67" s="42"/>
-      <c r="BG67" s="42"/>
-      <c r="BH67" s="42"/>
-      <c r="BI67" s="42"/>
-      <c r="BJ67" s="42"/>
-      <c r="BK67" s="42"/>
-      <c r="BL67" s="42"/>
-      <c r="BM67" s="42"/>
-      <c r="BN67" s="42"/>
-      <c r="BO67" s="42"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="73"/>
+      <c r="W67" s="85"/>
+      <c r="X67" s="82"/>
+      <c r="Y67" s="82"/>
+      <c r="Z67" s="82"/>
+      <c r="AA67" s="82"/>
+      <c r="AB67" s="82"/>
+      <c r="AC67" s="82"/>
+      <c r="AD67" s="82"/>
+      <c r="AE67" s="82"/>
+      <c r="AF67" s="82"/>
+      <c r="AG67" s="82"/>
+      <c r="AH67" s="82"/>
+      <c r="AI67" s="82"/>
+      <c r="AJ67" s="82"/>
+      <c r="AK67" s="82"/>
+      <c r="AL67" s="82"/>
+      <c r="AM67" s="82"/>
+      <c r="AN67" s="82"/>
+      <c r="AO67" s="83"/>
+      <c r="AP67" s="86"/>
+      <c r="AQ67" s="72"/>
+      <c r="AR67" s="72"/>
+      <c r="AS67" s="72"/>
+      <c r="AT67" s="72"/>
+      <c r="AU67" s="72"/>
+      <c r="AV67" s="72"/>
+      <c r="AW67" s="72"/>
+      <c r="AX67" s="72"/>
+      <c r="AY67" s="72"/>
+      <c r="AZ67" s="72"/>
+      <c r="BA67" s="73"/>
+      <c r="BB67" s="97"/>
+      <c r="BC67" s="72"/>
+      <c r="BD67" s="72"/>
+      <c r="BE67" s="72"/>
+      <c r="BF67" s="72"/>
+      <c r="BG67" s="72"/>
+      <c r="BH67" s="72"/>
+      <c r="BI67" s="72"/>
+      <c r="BJ67" s="72"/>
+      <c r="BK67" s="72"/>
+      <c r="BL67" s="72"/>
+      <c r="BM67" s="72"/>
+      <c r="BN67" s="72"/>
+      <c r="BO67" s="73"/>
       <c r="BP67" s="42"/>
     </row>
     <row r="68" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A68" s="42"/>
-      <c r="B68" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
-      <c r="Z68" s="42"/>
-      <c r="AA68" s="42"/>
-      <c r="AB68" s="42"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="42"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="42"/>
-      <c r="AH68" s="42"/>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="42"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
-      <c r="AQ68" s="42"/>
-      <c r="AR68" s="42"/>
-      <c r="AS68" s="42"/>
-      <c r="AT68" s="42"/>
-      <c r="AU68" s="42"/>
-      <c r="AV68" s="42"/>
-      <c r="AW68" s="42"/>
-      <c r="AX68" s="42"/>
-      <c r="AY68" s="42"/>
-      <c r="AZ68" s="42"/>
-      <c r="BA68" s="42"/>
-      <c r="BB68" s="42"/>
-      <c r="BC68" s="42"/>
-      <c r="BD68" s="42"/>
-      <c r="BE68" s="42"/>
-      <c r="BF68" s="42"/>
-      <c r="BG68" s="42"/>
-      <c r="BH68" s="42"/>
-      <c r="BI68" s="42"/>
-      <c r="BJ68" s="42"/>
-      <c r="BK68" s="42"/>
-      <c r="BL68" s="42"/>
-      <c r="BM68" s="42"/>
-      <c r="BN68" s="42"/>
-      <c r="BO68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="73"/>
+      <c r="W68" s="85"/>
+      <c r="X68" s="82"/>
+      <c r="Y68" s="82"/>
+      <c r="Z68" s="82"/>
+      <c r="AA68" s="82"/>
+      <c r="AB68" s="82"/>
+      <c r="AC68" s="82"/>
+      <c r="AD68" s="82"/>
+      <c r="AE68" s="82"/>
+      <c r="AF68" s="82"/>
+      <c r="AG68" s="82"/>
+      <c r="AH68" s="82"/>
+      <c r="AI68" s="82"/>
+      <c r="AJ68" s="82"/>
+      <c r="AK68" s="82"/>
+      <c r="AL68" s="82"/>
+      <c r="AM68" s="82"/>
+      <c r="AN68" s="82"/>
+      <c r="AO68" s="83"/>
+      <c r="AP68" s="86"/>
+      <c r="AQ68" s="72"/>
+      <c r="AR68" s="72"/>
+      <c r="AS68" s="72"/>
+      <c r="AT68" s="72"/>
+      <c r="AU68" s="72"/>
+      <c r="AV68" s="72"/>
+      <c r="AW68" s="72"/>
+      <c r="AX68" s="72"/>
+      <c r="AY68" s="72"/>
+      <c r="AZ68" s="72"/>
+      <c r="BA68" s="73"/>
+      <c r="BB68" s="97"/>
+      <c r="BC68" s="72"/>
+      <c r="BD68" s="72"/>
+      <c r="BE68" s="72"/>
+      <c r="BF68" s="72"/>
+      <c r="BG68" s="72"/>
+      <c r="BH68" s="72"/>
+      <c r="BI68" s="72"/>
+      <c r="BJ68" s="72"/>
+      <c r="BK68" s="72"/>
+      <c r="BL68" s="72"/>
+      <c r="BM68" s="72"/>
+      <c r="BN68" s="72"/>
+      <c r="BO68" s="73"/>
       <c r="BP68" s="42"/>
     </row>
     <row r="69" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
-      <c r="C69" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
-      <c r="AS69" s="42"/>
-      <c r="AT69" s="42"/>
-      <c r="AU69" s="42"/>
-      <c r="AV69" s="42"/>
-      <c r="AW69" s="42"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="42"/>
-      <c r="AZ69" s="42"/>
-      <c r="BA69" s="42"/>
-      <c r="BB69" s="42"/>
-      <c r="BC69" s="42"/>
-      <c r="BD69" s="42"/>
-      <c r="BE69" s="42"/>
-      <c r="BF69" s="42"/>
-      <c r="BG69" s="42"/>
-      <c r="BH69" s="42"/>
-      <c r="BI69" s="42"/>
-      <c r="BJ69" s="42"/>
-      <c r="BK69" s="42"/>
-      <c r="BL69" s="42"/>
-      <c r="BM69" s="42"/>
-      <c r="BN69" s="42"/>
-      <c r="BO69" s="42"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="72"/>
+      <c r="O69" s="72"/>
+      <c r="P69" s="72"/>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="73"/>
+      <c r="W69" s="85"/>
+      <c r="X69" s="82"/>
+      <c r="Y69" s="82"/>
+      <c r="Z69" s="82"/>
+      <c r="AA69" s="82"/>
+      <c r="AB69" s="82"/>
+      <c r="AC69" s="82"/>
+      <c r="AD69" s="82"/>
+      <c r="AE69" s="82"/>
+      <c r="AF69" s="82"/>
+      <c r="AG69" s="82"/>
+      <c r="AH69" s="82"/>
+      <c r="AI69" s="82"/>
+      <c r="AJ69" s="82"/>
+      <c r="AK69" s="82"/>
+      <c r="AL69" s="82"/>
+      <c r="AM69" s="82"/>
+      <c r="AN69" s="82"/>
+      <c r="AO69" s="83"/>
+      <c r="AP69" s="86"/>
+      <c r="AQ69" s="72"/>
+      <c r="AR69" s="72"/>
+      <c r="AS69" s="72"/>
+      <c r="AT69" s="72"/>
+      <c r="AU69" s="72"/>
+      <c r="AV69" s="72"/>
+      <c r="AW69" s="72"/>
+      <c r="AX69" s="72"/>
+      <c r="AY69" s="72"/>
+      <c r="AZ69" s="72"/>
+      <c r="BA69" s="73"/>
+      <c r="BB69" s="97"/>
+      <c r="BC69" s="72"/>
+      <c r="BD69" s="72"/>
+      <c r="BE69" s="72"/>
+      <c r="BF69" s="72"/>
+      <c r="BG69" s="72"/>
+      <c r="BH69" s="72"/>
+      <c r="BI69" s="72"/>
+      <c r="BJ69" s="72"/>
+      <c r="BK69" s="72"/>
+      <c r="BL69" s="72"/>
+      <c r="BM69" s="72"/>
+      <c r="BN69" s="72"/>
+      <c r="BO69" s="73"/>
       <c r="BP69" s="42"/>
     </row>
     <row r="70" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="42"/>
-      <c r="AT70" s="42"/>
-      <c r="AU70" s="42"/>
-      <c r="AV70" s="42"/>
-      <c r="AW70" s="42"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
-      <c r="AZ70" s="42"/>
-      <c r="BA70" s="42"/>
-      <c r="BB70" s="42"/>
-      <c r="BC70" s="42"/>
-      <c r="BD70" s="42"/>
-      <c r="BE70" s="42"/>
-      <c r="BF70" s="42"/>
-      <c r="BG70" s="42"/>
-      <c r="BH70" s="42"/>
-      <c r="BI70" s="42"/>
-      <c r="BJ70" s="42"/>
-      <c r="BK70" s="42"/>
-      <c r="BL70" s="42"/>
-      <c r="BM70" s="42"/>
-      <c r="BN70" s="42"/>
-      <c r="BO70" s="42"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="86"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="73"/>
+      <c r="W70" s="85"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
+      <c r="AA70" s="82"/>
+      <c r="AB70" s="82"/>
+      <c r="AC70" s="82"/>
+      <c r="AD70" s="82"/>
+      <c r="AE70" s="82"/>
+      <c r="AF70" s="82"/>
+      <c r="AG70" s="82"/>
+      <c r="AH70" s="82"/>
+      <c r="AI70" s="82"/>
+      <c r="AJ70" s="82"/>
+      <c r="AK70" s="82"/>
+      <c r="AL70" s="82"/>
+      <c r="AM70" s="82"/>
+      <c r="AN70" s="82"/>
+      <c r="AO70" s="83"/>
+      <c r="AP70" s="86"/>
+      <c r="AQ70" s="72"/>
+      <c r="AR70" s="72"/>
+      <c r="AS70" s="72"/>
+      <c r="AT70" s="72"/>
+      <c r="AU70" s="72"/>
+      <c r="AV70" s="72"/>
+      <c r="AW70" s="72"/>
+      <c r="AX70" s="72"/>
+      <c r="AY70" s="72"/>
+      <c r="AZ70" s="72"/>
+      <c r="BA70" s="73"/>
+      <c r="BB70" s="97"/>
+      <c r="BC70" s="72"/>
+      <c r="BD70" s="72"/>
+      <c r="BE70" s="72"/>
+      <c r="BF70" s="72"/>
+      <c r="BG70" s="72"/>
+      <c r="BH70" s="72"/>
+      <c r="BI70" s="72"/>
+      <c r="BJ70" s="72"/>
+      <c r="BK70" s="72"/>
+      <c r="BL70" s="72"/>
+      <c r="BM70" s="72"/>
+      <c r="BN70" s="72"/>
+      <c r="BO70" s="73"/>
       <c r="BP70" s="42"/>
     </row>
     <row r="71" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
-      <c r="C71" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="24"/>
-      <c r="AK71" s="42"/>
-      <c r="AL71" s="42"/>
-      <c r="AM71" s="42"/>
-      <c r="AN71" s="42"/>
-      <c r="AO71" s="42"/>
-      <c r="AP71" s="42"/>
-      <c r="AQ71" s="42"/>
-      <c r="AR71" s="42"/>
-      <c r="AS71" s="42"/>
-      <c r="AT71" s="42"/>
-      <c r="AU71" s="42"/>
-      <c r="AV71" s="42"/>
-      <c r="AW71" s="42"/>
-      <c r="AX71" s="42"/>
-      <c r="AY71" s="42"/>
-      <c r="AZ71" s="42"/>
-      <c r="BA71" s="42"/>
-      <c r="BB71" s="42"/>
-      <c r="BC71" s="42"/>
-      <c r="BD71" s="42"/>
-      <c r="BE71" s="42"/>
-      <c r="BF71" s="42"/>
-      <c r="BG71" s="42"/>
-      <c r="BH71" s="42"/>
-      <c r="BI71" s="42"/>
-      <c r="BJ71" s="42"/>
-      <c r="BK71" s="42"/>
-      <c r="BL71" s="42"/>
-      <c r="BM71" s="42"/>
-      <c r="BN71" s="42"/>
-      <c r="BO71" s="42"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="72"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="72"/>
+      <c r="O71" s="72"/>
+      <c r="P71" s="72"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="73"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="82"/>
+      <c r="Y71" s="82"/>
+      <c r="Z71" s="82"/>
+      <c r="AA71" s="82"/>
+      <c r="AB71" s="82"/>
+      <c r="AC71" s="82"/>
+      <c r="AD71" s="82"/>
+      <c r="AE71" s="82"/>
+      <c r="AF71" s="82"/>
+      <c r="AG71" s="82"/>
+      <c r="AH71" s="82"/>
+      <c r="AI71" s="82"/>
+      <c r="AJ71" s="82"/>
+      <c r="AK71" s="82"/>
+      <c r="AL71" s="82"/>
+      <c r="AM71" s="82"/>
+      <c r="AN71" s="82"/>
+      <c r="AO71" s="83"/>
+      <c r="AP71" s="86"/>
+      <c r="AQ71" s="72"/>
+      <c r="AR71" s="72"/>
+      <c r="AS71" s="72"/>
+      <c r="AT71" s="72"/>
+      <c r="AU71" s="72"/>
+      <c r="AV71" s="72"/>
+      <c r="AW71" s="72"/>
+      <c r="AX71" s="72"/>
+      <c r="AY71" s="72"/>
+      <c r="AZ71" s="72"/>
+      <c r="BA71" s="73"/>
+      <c r="BB71" s="97"/>
+      <c r="BC71" s="72"/>
+      <c r="BD71" s="72"/>
+      <c r="BE71" s="72"/>
+      <c r="BF71" s="72"/>
+      <c r="BG71" s="72"/>
+      <c r="BH71" s="72"/>
+      <c r="BI71" s="72"/>
+      <c r="BJ71" s="72"/>
+      <c r="BK71" s="72"/>
+      <c r="BL71" s="72"/>
+      <c r="BM71" s="72"/>
+      <c r="BN71" s="72"/>
+      <c r="BO71" s="73"/>
       <c r="BP71" s="42"/>
     </row>
     <row r="72" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="42"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="42"/>
       <c r="AK72" s="42"/>
       <c r="AL72" s="42"/>
       <c r="AM72" s="42"/>
@@ -18742,43 +18771,43 @@
     </row>
     <row r="73" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="24" t="s">
-        <v>25</v>
+      <c r="B73" s="22" t="s">
+        <v>20</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="42"/>
       <c r="AK73" s="42"/>
       <c r="AL73" s="42"/>
       <c r="AM73" s="42"/>
@@ -18815,10 +18844,10 @@
     <row r="74" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24" t="s">
-        <v>26</v>
+      <c r="C74" s="24" t="s">
+        <v>21</v>
       </c>
+      <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
@@ -18887,40 +18916,42 @@
     <row r="75" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="42"/>
-      <c r="S75" s="42"/>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="42"/>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="42"/>
-      <c r="AE75" s="42"/>
-      <c r="AF75" s="42"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
       <c r="AK75" s="42"/>
       <c r="AL75" s="42"/>
       <c r="AM75" s="42"/>
@@ -18954,43 +18985,45 @@
       <c r="BO75" s="42"/>
       <c r="BP75" s="42"/>
     </row>
-    <row r="76" spans="1:68" ht="16.5">
+    <row r="76" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="42"/>
-      <c r="S76" s="42"/>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="42"/>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="42"/>
-      <c r="AJ76" s="42"/>
+      <c r="C76" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="24"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
       <c r="AK76" s="42"/>
       <c r="AL76" s="42"/>
       <c r="AM76" s="42"/>
@@ -19024,116 +19057,117 @@
       <c r="BO76" s="42"/>
       <c r="BP76" s="42"/>
     </row>
-    <row r="77" spans="1:68" ht="16.5">
-      <c r="A77" s="35" t="str">
-        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
-        <v>2.2.4.備考</v>
+    <row r="77" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-      <c r="AP77" s="1"/>
-      <c r="AQ77" s="1"/>
-      <c r="AR77" s="1"/>
-      <c r="AS77" s="1"/>
-      <c r="AT77" s="1"/>
-      <c r="AU77" s="1"/>
-      <c r="AV77" s="1"/>
-      <c r="AW77" s="1"/>
-      <c r="AX77" s="1"/>
-      <c r="AY77" s="1"/>
-      <c r="AZ77" s="1"/>
-      <c r="BA77" s="1"/>
-      <c r="BB77" s="1"/>
-      <c r="BC77" s="1"/>
-      <c r="BD77" s="1"/>
-      <c r="BE77" s="1"/>
-      <c r="BF77" s="1"/>
-      <c r="BG77" s="1"/>
-      <c r="BH77" s="1"/>
-      <c r="BI77" s="1"/>
-      <c r="BJ77" s="1"/>
-      <c r="BK77" s="1"/>
-      <c r="BL77" s="1"/>
-      <c r="BM77" s="1"/>
-      <c r="BN77" s="1"/>
-      <c r="BO77" s="1"/>
-      <c r="BP77" s="1"/>
-    </row>
-    <row r="78" spans="1:68" ht="16.5">
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="24"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="24"/>
+      <c r="AI77" s="24"/>
+      <c r="AJ77" s="24"/>
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="42"/>
+      <c r="AM77" s="42"/>
+      <c r="AN77" s="42"/>
+      <c r="AO77" s="42"/>
+      <c r="AP77" s="42"/>
+      <c r="AQ77" s="42"/>
+      <c r="AR77" s="42"/>
+      <c r="AS77" s="42"/>
+      <c r="AT77" s="42"/>
+      <c r="AU77" s="42"/>
+      <c r="AV77" s="42"/>
+      <c r="AW77" s="42"/>
+      <c r="AX77" s="42"/>
+      <c r="AY77" s="42"/>
+      <c r="AZ77" s="42"/>
+      <c r="BA77" s="42"/>
+      <c r="BB77" s="42"/>
+      <c r="BC77" s="42"/>
+      <c r="BD77" s="42"/>
+      <c r="BE77" s="42"/>
+      <c r="BF77" s="42"/>
+      <c r="BG77" s="42"/>
+      <c r="BH77" s="42"/>
+      <c r="BI77" s="42"/>
+      <c r="BJ77" s="42"/>
+      <c r="BK77" s="42"/>
+      <c r="BL77" s="42"/>
+      <c r="BM77" s="42"/>
+      <c r="BN77" s="42"/>
+      <c r="BO77" s="42"/>
+      <c r="BP77" s="42"/>
+    </row>
+    <row r="78" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
-      <c r="Q78" s="42"/>
-      <c r="R78" s="42"/>
-      <c r="S78" s="42"/>
-      <c r="T78" s="42"/>
-      <c r="U78" s="42"/>
-      <c r="V78" s="42"/>
-      <c r="W78" s="42"/>
-      <c r="X78" s="42"/>
-      <c r="Y78" s="42"/>
-      <c r="Z78" s="42"/>
-      <c r="AA78" s="42"/>
-      <c r="AB78" s="42"/>
-      <c r="AC78" s="42"/>
-      <c r="AD78" s="42"/>
-      <c r="AE78" s="42"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="42"/>
-      <c r="AH78" s="42"/>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="42"/>
+      <c r="C78" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="24"/>
+      <c r="AJ78" s="24"/>
       <c r="AK78" s="42"/>
       <c r="AL78" s="42"/>
       <c r="AM78" s="42"/>
@@ -19169,43 +19203,43 @@
     </row>
     <row r="79" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A79" s="42"/>
-      <c r="B79" s="25" t="s">
-        <v>27</v>
+      <c r="B79" s="42"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24" t="s">
+        <v>26</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="68"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="68"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="68"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="68"/>
-      <c r="T79" s="68"/>
-      <c r="U79" s="68"/>
-      <c r="V79" s="68"/>
-      <c r="W79" s="68"/>
-      <c r="X79" s="68"/>
-      <c r="Y79" s="68"/>
-      <c r="Z79" s="68"/>
-      <c r="AA79" s="68"/>
-      <c r="AB79" s="68"/>
-      <c r="AC79" s="68"/>
-      <c r="AD79" s="68"/>
-      <c r="AE79" s="68"/>
-      <c r="AF79" s="68"/>
-      <c r="AG79" s="68"/>
-      <c r="AH79" s="68"/>
-      <c r="AI79" s="68"/>
-      <c r="AJ79" s="68"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
+      <c r="V79" s="24"/>
+      <c r="W79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
       <c r="AK79" s="42"/>
       <c r="AL79" s="42"/>
       <c r="AM79" s="42"/>
@@ -19241,43 +19275,41 @@
     </row>
     <row r="80" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A80" s="42"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="88"/>
-      <c r="H80" s="88"/>
-      <c r="I80" s="88"/>
-      <c r="J80" s="88"/>
-      <c r="K80" s="88"/>
-      <c r="L80" s="88"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
-      <c r="O80" s="88"/>
-      <c r="P80" s="88"/>
-      <c r="Q80" s="68"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
-      <c r="U80" s="68"/>
-      <c r="V80" s="68"/>
-      <c r="W80" s="68"/>
-      <c r="X80" s="68"/>
-      <c r="Y80" s="68"/>
-      <c r="Z80" s="68"/>
-      <c r="AA80" s="68"/>
-      <c r="AB80" s="68"/>
-      <c r="AC80" s="68"/>
-      <c r="AD80" s="68"/>
-      <c r="AE80" s="68"/>
-      <c r="AF80" s="68"/>
-      <c r="AG80" s="68"/>
-      <c r="AH80" s="68"/>
-      <c r="AI80" s="68"/>
-      <c r="AJ80" s="68"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
       <c r="AK80" s="42"/>
       <c r="AL80" s="42"/>
       <c r="AM80" s="42"/>
@@ -19311,45 +19343,43 @@
       <c r="BO80" s="42"/>
       <c r="BP80" s="42"/>
     </row>
-    <row r="81" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="81" spans="1:68" ht="16.5">
       <c r="A81" s="42"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="88"/>
-      <c r="K81" s="88"/>
-      <c r="L81" s="88"/>
-      <c r="M81" s="68"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="68"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="68"/>
-      <c r="R81" s="68"/>
-      <c r="S81" s="68"/>
-      <c r="T81" s="68"/>
-      <c r="U81" s="68"/>
-      <c r="V81" s="68"/>
-      <c r="W81" s="68"/>
-      <c r="X81" s="68"/>
-      <c r="Y81" s="68"/>
-      <c r="Z81" s="68"/>
-      <c r="AA81" s="68"/>
-      <c r="AB81" s="68"/>
-      <c r="AC81" s="68"/>
-      <c r="AD81" s="68"/>
-      <c r="AE81" s="68"/>
-      <c r="AF81" s="68"/>
-      <c r="AG81" s="68"/>
-      <c r="AH81" s="68"/>
-      <c r="AI81" s="68"/>
-      <c r="AJ81" s="68"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="42"/>
+      <c r="AI81" s="42"/>
+      <c r="AJ81" s="42"/>
       <c r="AK81" s="42"/>
       <c r="AL81" s="42"/>
       <c r="AM81" s="42"/>
@@ -19383,117 +19413,116 @@
       <c r="BO81" s="42"/>
       <c r="BP81" s="42"/>
     </row>
-    <row r="82" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="93" t="s">
-        <v>30</v>
+    <row r="82" spans="1:68" ht="16.5">
+      <c r="A82" s="35" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.2.4.備考</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
-      <c r="AF82" s="27"/>
-      <c r="AG82" s="27"/>
-      <c r="AH82" s="27"/>
-      <c r="AI82" s="27"/>
-      <c r="AJ82" s="28"/>
-      <c r="AK82" s="42"/>
-      <c r="AL82" s="42"/>
-      <c r="AM82" s="42"/>
-      <c r="AN82" s="42"/>
-      <c r="AO82" s="42"/>
-      <c r="AP82" s="42"/>
-      <c r="AQ82" s="42"/>
-      <c r="AR82" s="42"/>
-      <c r="AS82" s="42"/>
-      <c r="AT82" s="42"/>
-      <c r="AU82" s="42"/>
-      <c r="AV82" s="42"/>
-      <c r="AW82" s="42"/>
-      <c r="AX82" s="42"/>
-      <c r="AY82" s="42"/>
-      <c r="AZ82" s="42"/>
-      <c r="BA82" s="42"/>
-      <c r="BB82" s="42"/>
-      <c r="BC82" s="42"/>
-      <c r="BD82" s="42"/>
-      <c r="BE82" s="42"/>
-      <c r="BF82" s="42"/>
-      <c r="BG82" s="42"/>
-      <c r="BH82" s="42"/>
-      <c r="BI82" s="42"/>
-      <c r="BJ82" s="42"/>
-      <c r="BK82" s="42"/>
-      <c r="BL82" s="42"/>
-      <c r="BM82" s="42"/>
-      <c r="BN82" s="42"/>
-      <c r="BO82" s="42"/>
-      <c r="BP82" s="42"/>
-    </row>
-    <row r="83" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="1"/>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+    </row>
+    <row r="83" spans="1:68" ht="16.5">
       <c r="A83" s="42"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
-      <c r="P83" s="72"/>
-      <c r="Q83" s="72"/>
-      <c r="R83" s="72"/>
-      <c r="S83" s="72"/>
-      <c r="T83" s="72"/>
-      <c r="U83" s="72"/>
-      <c r="V83" s="72"/>
-      <c r="W83" s="72"/>
-      <c r="X83" s="72"/>
-      <c r="Y83" s="72"/>
-      <c r="Z83" s="72"/>
-      <c r="AA83" s="72"/>
-      <c r="AB83" s="72"/>
-      <c r="AC83" s="72"/>
-      <c r="AD83" s="72"/>
-      <c r="AE83" s="72"/>
-      <c r="AF83" s="72"/>
-      <c r="AG83" s="72"/>
-      <c r="AH83" s="72"/>
-      <c r="AI83" s="72"/>
-      <c r="AJ83" s="73"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
+      <c r="AA83" s="42"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="42"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="42"/>
+      <c r="AI83" s="42"/>
+      <c r="AJ83" s="42"/>
       <c r="AK83" s="42"/>
       <c r="AL83" s="42"/>
       <c r="AM83" s="42"/>
@@ -19529,43 +19558,43 @@
     </row>
     <row r="84" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A84" s="42"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="93" t="s">
-        <v>32</v>
+      <c r="B84" s="25" t="s">
+        <v>27</v>
       </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="30"/>
-      <c r="AE84" s="30"/>
-      <c r="AF84" s="30"/>
-      <c r="AG84" s="30"/>
-      <c r="AH84" s="30"/>
-      <c r="AI84" s="30"/>
-      <c r="AJ84" s="31"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+      <c r="AH84" s="68"/>
+      <c r="AI84" s="68"/>
+      <c r="AJ84" s="68"/>
       <c r="AK84" s="42"/>
       <c r="AL84" s="42"/>
       <c r="AM84" s="42"/>
@@ -19602,42 +19631,42 @@
     <row r="85" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A85" s="42"/>
       <c r="B85" s="68"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="91" t="s">
-        <v>33</v>
+      <c r="C85" s="87" t="s">
+        <v>28</v>
       </c>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72"/>
-      <c r="L85" s="72"/>
-      <c r="M85" s="72"/>
-      <c r="N85" s="72"/>
-      <c r="O85" s="72"/>
-      <c r="P85" s="72"/>
-      <c r="Q85" s="72"/>
-      <c r="R85" s="72"/>
-      <c r="S85" s="72"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="72"/>
-      <c r="V85" s="72"/>
-      <c r="W85" s="72"/>
-      <c r="X85" s="72"/>
-      <c r="Y85" s="72"/>
-      <c r="Z85" s="72"/>
-      <c r="AA85" s="72"/>
-      <c r="AB85" s="72"/>
-      <c r="AC85" s="72"/>
-      <c r="AD85" s="72"/>
-      <c r="AE85" s="72"/>
-      <c r="AF85" s="72"/>
-      <c r="AG85" s="72"/>
-      <c r="AH85" s="72"/>
-      <c r="AI85" s="72"/>
-      <c r="AJ85" s="73"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="F85" s="88"/>
+      <c r="G85" s="88"/>
+      <c r="H85" s="88"/>
+      <c r="I85" s="88"/>
+      <c r="J85" s="88"/>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
+      <c r="N85" s="88"/>
+      <c r="O85" s="88"/>
+      <c r="P85" s="88"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
+      <c r="T85" s="68"/>
+      <c r="U85" s="68"/>
+      <c r="V85" s="68"/>
+      <c r="W85" s="68"/>
+      <c r="X85" s="68"/>
+      <c r="Y85" s="68"/>
+      <c r="Z85" s="68"/>
+      <c r="AA85" s="68"/>
+      <c r="AB85" s="68"/>
+      <c r="AC85" s="68"/>
+      <c r="AD85" s="68"/>
+      <c r="AE85" s="68"/>
+      <c r="AF85" s="68"/>
+      <c r="AG85" s="68"/>
+      <c r="AH85" s="68"/>
+      <c r="AI85" s="68"/>
+      <c r="AJ85" s="68"/>
       <c r="AK85" s="42"/>
       <c r="AL85" s="42"/>
       <c r="AM85" s="42"/>
@@ -19673,41 +19702,43 @@
     </row>
     <row r="86" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="42"/>
-      <c r="S86" s="42"/>
-      <c r="T86" s="42"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="42"/>
-      <c r="X86" s="42"/>
-      <c r="Y86" s="42"/>
-      <c r="Z86" s="42"/>
-      <c r="AA86" s="42"/>
-      <c r="AB86" s="42"/>
-      <c r="AC86" s="42"/>
-      <c r="AD86" s="42"/>
-      <c r="AE86" s="42"/>
-      <c r="AF86" s="42"/>
-      <c r="AG86" s="42"/>
-      <c r="AH86" s="42"/>
-      <c r="AI86" s="42"/>
-      <c r="AJ86" s="42"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
+      <c r="T86" s="68"/>
+      <c r="U86" s="68"/>
+      <c r="V86" s="68"/>
+      <c r="W86" s="68"/>
+      <c r="X86" s="68"/>
+      <c r="Y86" s="68"/>
+      <c r="Z86" s="68"/>
+      <c r="AA86" s="68"/>
+      <c r="AB86" s="68"/>
+      <c r="AC86" s="68"/>
+      <c r="AD86" s="68"/>
+      <c r="AE86" s="68"/>
+      <c r="AF86" s="68"/>
+      <c r="AG86" s="68"/>
+      <c r="AH86" s="68"/>
+      <c r="AI86" s="68"/>
+      <c r="AJ86" s="68"/>
       <c r="AK86" s="42"/>
       <c r="AL86" s="42"/>
       <c r="AM86" s="42"/>
@@ -19743,43 +19774,43 @@
     </row>
     <row r="87" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A87" s="42"/>
-      <c r="B87" s="25" t="s">
-        <v>34</v>
+      <c r="B87" s="68"/>
+      <c r="C87" s="93" t="s">
+        <v>30</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
-      <c r="T87" s="42"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="42"/>
-      <c r="X87" s="42"/>
-      <c r="Y87" s="42"/>
-      <c r="Z87" s="42"/>
-      <c r="AA87" s="42"/>
-      <c r="AB87" s="42"/>
-      <c r="AC87" s="42"/>
-      <c r="AD87" s="42"/>
-      <c r="AE87" s="42"/>
-      <c r="AF87" s="42"/>
-      <c r="AG87" s="42"/>
-      <c r="AH87" s="42"/>
-      <c r="AI87" s="42"/>
-      <c r="AJ87" s="42"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="27"/>
+      <c r="AH87" s="27"/>
+      <c r="AI87" s="27"/>
+      <c r="AJ87" s="28"/>
       <c r="AK87" s="42"/>
       <c r="AL87" s="42"/>
       <c r="AM87" s="42"/>
@@ -19815,43 +19846,43 @@
     </row>
     <row r="88" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="87" t="s">
-        <v>35</v>
+      <c r="B88" s="68"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="91" t="s">
+        <v>31</v>
       </c>
-      <c r="D88" s="88"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="88"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="42"/>
-      <c r="S88" s="42"/>
-      <c r="T88" s="42"/>
-      <c r="U88" s="42"/>
-      <c r="V88" s="42"/>
-      <c r="W88" s="42"/>
-      <c r="X88" s="42"/>
-      <c r="Y88" s="42"/>
-      <c r="Z88" s="42"/>
-      <c r="AA88" s="42"/>
-      <c r="AB88" s="42"/>
-      <c r="AC88" s="42"/>
-      <c r="AD88" s="42"/>
-      <c r="AE88" s="42"/>
-      <c r="AF88" s="42"/>
-      <c r="AG88" s="42"/>
-      <c r="AH88" s="42"/>
-      <c r="AI88" s="42"/>
-      <c r="AJ88" s="42"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
+      <c r="V88" s="72"/>
+      <c r="W88" s="72"/>
+      <c r="X88" s="72"/>
+      <c r="Y88" s="72"/>
+      <c r="Z88" s="72"/>
+      <c r="AA88" s="72"/>
+      <c r="AB88" s="72"/>
+      <c r="AC88" s="72"/>
+      <c r="AD88" s="72"/>
+      <c r="AE88" s="72"/>
+      <c r="AF88" s="72"/>
+      <c r="AG88" s="72"/>
+      <c r="AH88" s="72"/>
+      <c r="AI88" s="72"/>
+      <c r="AJ88" s="73"/>
       <c r="AK88" s="42"/>
       <c r="AL88" s="42"/>
       <c r="AM88" s="42"/>
@@ -19887,45 +19918,43 @@
     </row>
     <row r="89" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="92" t="s">
-        <v>6</v>
+      <c r="B89" s="68"/>
+      <c r="C89" s="93" t="s">
+        <v>32</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="33"/>
-      <c r="AE89" s="33"/>
-      <c r="AF89" s="33"/>
-      <c r="AG89" s="33"/>
-      <c r="AH89" s="33"/>
-      <c r="AI89" s="34"/>
-      <c r="AJ89" s="42"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="30"/>
+      <c r="AG89" s="30"/>
+      <c r="AH89" s="30"/>
+      <c r="AI89" s="30"/>
+      <c r="AJ89" s="31"/>
       <c r="AK89" s="42"/>
       <c r="AL89" s="42"/>
       <c r="AM89" s="42"/>
@@ -19961,19 +19990,17 @@
     </row>
     <row r="90" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="89" t="s">
-        <v>37</v>
+      <c r="B90" s="68"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="91" t="s">
+        <v>33</v>
       </c>
-      <c r="D90" s="72"/>
       <c r="E90" s="72"/>
       <c r="F90" s="72"/>
       <c r="G90" s="72"/>
       <c r="H90" s="72"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="90" t="s">
-        <v>38</v>
-      </c>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
       <c r="K90" s="72"/>
       <c r="L90" s="72"/>
       <c r="M90" s="72"/>
@@ -19998,8 +20025,8 @@
       <c r="AF90" s="72"/>
       <c r="AG90" s="72"/>
       <c r="AH90" s="72"/>
-      <c r="AI90" s="73"/>
-      <c r="AJ90" s="42"/>
+      <c r="AI90" s="72"/>
+      <c r="AJ90" s="73"/>
       <c r="AK90" s="42"/>
       <c r="AL90" s="42"/>
       <c r="AM90" s="42"/>
@@ -20036,43 +20063,39 @@
     <row r="91" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
-      <c r="C91" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="K91" s="72"/>
-      <c r="L91" s="72"/>
-      <c r="M91" s="72"/>
-      <c r="N91" s="72"/>
-      <c r="O91" s="72"/>
-      <c r="P91" s="72"/>
-      <c r="Q91" s="72"/>
-      <c r="R91" s="72"/>
-      <c r="S91" s="72"/>
-      <c r="T91" s="72"/>
-      <c r="U91" s="72"/>
-      <c r="V91" s="72"/>
-      <c r="W91" s="72"/>
-      <c r="X91" s="72"/>
-      <c r="Y91" s="72"/>
-      <c r="Z91" s="72"/>
-      <c r="AA91" s="72"/>
-      <c r="AB91" s="72"/>
-      <c r="AC91" s="72"/>
-      <c r="AD91" s="72"/>
-      <c r="AE91" s="72"/>
-      <c r="AF91" s="72"/>
-      <c r="AG91" s="72"/>
-      <c r="AH91" s="72"/>
-      <c r="AI91" s="73"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="42"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="42"/>
+      <c r="AA91" s="42"/>
+      <c r="AB91" s="42"/>
+      <c r="AC91" s="42"/>
+      <c r="AD91" s="42"/>
+      <c r="AE91" s="42"/>
+      <c r="AF91" s="42"/>
+      <c r="AG91" s="42"/>
+      <c r="AH91" s="42"/>
+      <c r="AI91" s="42"/>
       <c r="AJ91" s="42"/>
       <c r="AK91" s="42"/>
       <c r="AL91" s="42"/>
@@ -20109,44 +20132,42 @@
     </row>
     <row r="92" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="89" t="s">
-        <v>41</v>
+      <c r="B92" s="25" t="s">
+        <v>34</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="73"/>
-      <c r="J92" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="K92" s="72"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
-      <c r="N92" s="72"/>
-      <c r="O92" s="72"/>
-      <c r="P92" s="72"/>
-      <c r="Q92" s="72"/>
-      <c r="R92" s="72"/>
-      <c r="S92" s="72"/>
-      <c r="T92" s="72"/>
-      <c r="U92" s="72"/>
-      <c r="V92" s="72"/>
-      <c r="W92" s="72"/>
-      <c r="X92" s="72"/>
-      <c r="Y92" s="72"/>
-      <c r="Z92" s="72"/>
-      <c r="AA92" s="72"/>
-      <c r="AB92" s="72"/>
-      <c r="AC92" s="72"/>
-      <c r="AD92" s="72"/>
-      <c r="AE92" s="72"/>
-      <c r="AF92" s="72"/>
-      <c r="AG92" s="72"/>
-      <c r="AH92" s="72"/>
-      <c r="AI92" s="73"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="42"/>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="42"/>
+      <c r="AD92" s="42"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="42"/>
+      <c r="AH92" s="42"/>
+      <c r="AI92" s="42"/>
       <c r="AJ92" s="42"/>
       <c r="AK92" s="42"/>
       <c r="AL92" s="42"/>
@@ -20184,12 +20205,14 @@
     <row r="93" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
+      <c r="C93" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
       <c r="K93" s="42"/>
@@ -20251,42 +20274,46 @@
       <c r="BO93" s="42"/>
       <c r="BP93" s="42"/>
     </row>
-    <row r="94" spans="1:68" ht="16.5">
+    <row r="94" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
-      <c r="R94" s="42"/>
-      <c r="S94" s="42"/>
-      <c r="T94" s="42"/>
-      <c r="U94" s="42"/>
-      <c r="V94" s="42"/>
-      <c r="W94" s="42"/>
-      <c r="X94" s="42"/>
-      <c r="Y94" s="42"/>
-      <c r="Z94" s="42"/>
-      <c r="AA94" s="42"/>
-      <c r="AB94" s="42"/>
-      <c r="AC94" s="42"/>
-      <c r="AD94" s="42"/>
-      <c r="AE94" s="42"/>
-      <c r="AF94" s="42"/>
-      <c r="AG94" s="42"/>
-      <c r="AH94" s="42"/>
-      <c r="AI94" s="42"/>
+      <c r="C94" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="72"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" s="72"/>
+      <c r="L94" s="72"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="33"/>
+      <c r="T94" s="33"/>
+      <c r="U94" s="33"/>
+      <c r="V94" s="33"/>
+      <c r="W94" s="33"/>
+      <c r="X94" s="33"/>
+      <c r="Y94" s="33"/>
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="33"/>
+      <c r="AB94" s="33"/>
+      <c r="AC94" s="33"/>
+      <c r="AD94" s="33"/>
+      <c r="AE94" s="33"/>
+      <c r="AF94" s="33"/>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="33"/>
+      <c r="AI94" s="34"/>
       <c r="AJ94" s="42"/>
       <c r="AK94" s="42"/>
       <c r="AL94" s="42"/>
@@ -20321,42 +20348,46 @@
       <c r="BO94" s="42"/>
       <c r="BP94" s="42"/>
     </row>
-    <row r="95" spans="1:68" ht="16.5">
+    <row r="95" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
-      <c r="M95" s="42"/>
-      <c r="N95" s="42"/>
-      <c r="O95" s="42"/>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="42"/>
-      <c r="S95" s="42"/>
-      <c r="T95" s="42"/>
-      <c r="U95" s="42"/>
-      <c r="V95" s="42"/>
-      <c r="W95" s="42"/>
-      <c r="X95" s="42"/>
-      <c r="Y95" s="42"/>
-      <c r="Z95" s="42"/>
-      <c r="AA95" s="42"/>
-      <c r="AB95" s="42"/>
-      <c r="AC95" s="42"/>
-      <c r="AD95" s="42"/>
-      <c r="AE95" s="42"/>
-      <c r="AF95" s="42"/>
-      <c r="AG95" s="42"/>
-      <c r="AH95" s="42"/>
-      <c r="AI95" s="42"/>
+      <c r="C95" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
+      <c r="P95" s="72"/>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
+      <c r="V95" s="72"/>
+      <c r="W95" s="72"/>
+      <c r="X95" s="72"/>
+      <c r="Y95" s="72"/>
+      <c r="Z95" s="72"/>
+      <c r="AA95" s="72"/>
+      <c r="AB95" s="72"/>
+      <c r="AC95" s="72"/>
+      <c r="AD95" s="72"/>
+      <c r="AE95" s="72"/>
+      <c r="AF95" s="72"/>
+      <c r="AG95" s="72"/>
+      <c r="AH95" s="72"/>
+      <c r="AI95" s="73"/>
       <c r="AJ95" s="42"/>
       <c r="AK95" s="42"/>
       <c r="AL95" s="42"/>
@@ -20391,42 +20422,46 @@
       <c r="BO95" s="42"/>
       <c r="BP95" s="42"/>
     </row>
-    <row r="96" spans="1:68" ht="16.5">
+    <row r="96" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
-      <c r="Q96" s="42"/>
-      <c r="R96" s="42"/>
-      <c r="S96" s="42"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="42"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="42"/>
-      <c r="X96" s="42"/>
-      <c r="Y96" s="42"/>
-      <c r="Z96" s="42"/>
-      <c r="AA96" s="42"/>
-      <c r="AB96" s="42"/>
-      <c r="AC96" s="42"/>
-      <c r="AD96" s="42"/>
-      <c r="AE96" s="42"/>
-      <c r="AF96" s="42"/>
-      <c r="AG96" s="42"/>
-      <c r="AH96" s="42"/>
-      <c r="AI96" s="42"/>
+      <c r="C96" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="72"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="K96" s="72"/>
+      <c r="L96" s="72"/>
+      <c r="M96" s="72"/>
+      <c r="N96" s="72"/>
+      <c r="O96" s="72"/>
+      <c r="P96" s="72"/>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
+      <c r="V96" s="72"/>
+      <c r="W96" s="72"/>
+      <c r="X96" s="72"/>
+      <c r="Y96" s="72"/>
+      <c r="Z96" s="72"/>
+      <c r="AA96" s="72"/>
+      <c r="AB96" s="72"/>
+      <c r="AC96" s="72"/>
+      <c r="AD96" s="72"/>
+      <c r="AE96" s="72"/>
+      <c r="AF96" s="72"/>
+      <c r="AG96" s="72"/>
+      <c r="AH96" s="72"/>
+      <c r="AI96" s="73"/>
       <c r="AJ96" s="42"/>
       <c r="AK96" s="42"/>
       <c r="AL96" s="42"/>
@@ -20461,42 +20496,46 @@
       <c r="BO96" s="42"/>
       <c r="BP96" s="42"/>
     </row>
-    <row r="97" spans="1:68" ht="16.5">
+    <row r="97" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="42"/>
-      <c r="N97" s="42"/>
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
-      <c r="Q97" s="42"/>
-      <c r="R97" s="42"/>
-      <c r="S97" s="42"/>
-      <c r="T97" s="42"/>
-      <c r="U97" s="42"/>
-      <c r="V97" s="42"/>
-      <c r="W97" s="42"/>
-      <c r="X97" s="42"/>
-      <c r="Y97" s="42"/>
-      <c r="Z97" s="42"/>
-      <c r="AA97" s="42"/>
-      <c r="AB97" s="42"/>
-      <c r="AC97" s="42"/>
-      <c r="AD97" s="42"/>
-      <c r="AE97" s="42"/>
-      <c r="AF97" s="42"/>
-      <c r="AG97" s="42"/>
-      <c r="AH97" s="42"/>
-      <c r="AI97" s="42"/>
+      <c r="C97" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
+      <c r="P97" s="72"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="72"/>
+      <c r="S97" s="72"/>
+      <c r="T97" s="72"/>
+      <c r="U97" s="72"/>
+      <c r="V97" s="72"/>
+      <c r="W97" s="72"/>
+      <c r="X97" s="72"/>
+      <c r="Y97" s="72"/>
+      <c r="Z97" s="72"/>
+      <c r="AA97" s="72"/>
+      <c r="AB97" s="72"/>
+      <c r="AC97" s="72"/>
+      <c r="AD97" s="72"/>
+      <c r="AE97" s="72"/>
+      <c r="AF97" s="72"/>
+      <c r="AG97" s="72"/>
+      <c r="AH97" s="72"/>
+      <c r="AI97" s="73"/>
       <c r="AJ97" s="42"/>
       <c r="AK97" s="42"/>
       <c r="AL97" s="42"/>
@@ -20531,7 +20570,7 @@
       <c r="BO97" s="42"/>
       <c r="BP97" s="42"/>
     </row>
-    <row r="98" spans="1:68" ht="16.5">
+    <row r="98" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -20881,11 +20920,391 @@
       <c r="BO102" s="42"/>
       <c r="BP102" s="42"/>
     </row>
+    <row r="103" spans="1:68" ht="16.5">
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="42"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="42"/>
+      <c r="T103" s="42"/>
+      <c r="U103" s="42"/>
+      <c r="V103" s="42"/>
+      <c r="W103" s="42"/>
+      <c r="X103" s="42"/>
+      <c r="Y103" s="42"/>
+      <c r="Z103" s="42"/>
+      <c r="AA103" s="42"/>
+      <c r="AB103" s="42"/>
+      <c r="AC103" s="42"/>
+      <c r="AD103" s="42"/>
+      <c r="AE103" s="42"/>
+      <c r="AF103" s="42"/>
+      <c r="AG103" s="42"/>
+      <c r="AH103" s="42"/>
+      <c r="AI103" s="42"/>
+      <c r="AJ103" s="42"/>
+      <c r="AK103" s="42"/>
+      <c r="AL103" s="42"/>
+      <c r="AM103" s="42"/>
+      <c r="AN103" s="42"/>
+      <c r="AO103" s="42"/>
+      <c r="AP103" s="42"/>
+      <c r="AQ103" s="42"/>
+      <c r="AR103" s="42"/>
+      <c r="AS103" s="42"/>
+      <c r="AT103" s="42"/>
+      <c r="AU103" s="42"/>
+      <c r="AV103" s="42"/>
+      <c r="AW103" s="42"/>
+      <c r="AX103" s="42"/>
+      <c r="AY103" s="42"/>
+      <c r="AZ103" s="42"/>
+      <c r="BA103" s="42"/>
+      <c r="BB103" s="42"/>
+      <c r="BC103" s="42"/>
+      <c r="BD103" s="42"/>
+      <c r="BE103" s="42"/>
+      <c r="BF103" s="42"/>
+      <c r="BG103" s="42"/>
+      <c r="BH103" s="42"/>
+      <c r="BI103" s="42"/>
+      <c r="BJ103" s="42"/>
+      <c r="BK103" s="42"/>
+      <c r="BL103" s="42"/>
+      <c r="BM103" s="42"/>
+      <c r="BN103" s="42"/>
+      <c r="BO103" s="42"/>
+      <c r="BP103" s="42"/>
+    </row>
+    <row r="104" spans="1:68" ht="16.5">
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="42"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="42"/>
+      <c r="T104" s="42"/>
+      <c r="U104" s="42"/>
+      <c r="V104" s="42"/>
+      <c r="W104" s="42"/>
+      <c r="X104" s="42"/>
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="42"/>
+      <c r="AA104" s="42"/>
+      <c r="AB104" s="42"/>
+      <c r="AC104" s="42"/>
+      <c r="AD104" s="42"/>
+      <c r="AE104" s="42"/>
+      <c r="AF104" s="42"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="42"/>
+      <c r="AI104" s="42"/>
+      <c r="AJ104" s="42"/>
+      <c r="AK104" s="42"/>
+      <c r="AL104" s="42"/>
+      <c r="AM104" s="42"/>
+      <c r="AN104" s="42"/>
+      <c r="AO104" s="42"/>
+      <c r="AP104" s="42"/>
+      <c r="AQ104" s="42"/>
+      <c r="AR104" s="42"/>
+      <c r="AS104" s="42"/>
+      <c r="AT104" s="42"/>
+      <c r="AU104" s="42"/>
+      <c r="AV104" s="42"/>
+      <c r="AW104" s="42"/>
+      <c r="AX104" s="42"/>
+      <c r="AY104" s="42"/>
+      <c r="AZ104" s="42"/>
+      <c r="BA104" s="42"/>
+      <c r="BB104" s="42"/>
+      <c r="BC104" s="42"/>
+      <c r="BD104" s="42"/>
+      <c r="BE104" s="42"/>
+      <c r="BF104" s="42"/>
+      <c r="BG104" s="42"/>
+      <c r="BH104" s="42"/>
+      <c r="BI104" s="42"/>
+      <c r="BJ104" s="42"/>
+      <c r="BK104" s="42"/>
+      <c r="BL104" s="42"/>
+      <c r="BM104" s="42"/>
+      <c r="BN104" s="42"/>
+      <c r="BO104" s="42"/>
+      <c r="BP104" s="42"/>
+    </row>
+    <row r="105" spans="1:68" ht="16.5">
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
+      <c r="Q105" s="42"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="42"/>
+      <c r="T105" s="42"/>
+      <c r="U105" s="42"/>
+      <c r="V105" s="42"/>
+      <c r="W105" s="42"/>
+      <c r="X105" s="42"/>
+      <c r="Y105" s="42"/>
+      <c r="Z105" s="42"/>
+      <c r="AA105" s="42"/>
+      <c r="AB105" s="42"/>
+      <c r="AC105" s="42"/>
+      <c r="AD105" s="42"/>
+      <c r="AE105" s="42"/>
+      <c r="AF105" s="42"/>
+      <c r="AG105" s="42"/>
+      <c r="AH105" s="42"/>
+      <c r="AI105" s="42"/>
+      <c r="AJ105" s="42"/>
+      <c r="AK105" s="42"/>
+      <c r="AL105" s="42"/>
+      <c r="AM105" s="42"/>
+      <c r="AN105" s="42"/>
+      <c r="AO105" s="42"/>
+      <c r="AP105" s="42"/>
+      <c r="AQ105" s="42"/>
+      <c r="AR105" s="42"/>
+      <c r="AS105" s="42"/>
+      <c r="AT105" s="42"/>
+      <c r="AU105" s="42"/>
+      <c r="AV105" s="42"/>
+      <c r="AW105" s="42"/>
+      <c r="AX105" s="42"/>
+      <c r="AY105" s="42"/>
+      <c r="AZ105" s="42"/>
+      <c r="BA105" s="42"/>
+      <c r="BB105" s="42"/>
+      <c r="BC105" s="42"/>
+      <c r="BD105" s="42"/>
+      <c r="BE105" s="42"/>
+      <c r="BF105" s="42"/>
+      <c r="BG105" s="42"/>
+      <c r="BH105" s="42"/>
+      <c r="BI105" s="42"/>
+      <c r="BJ105" s="42"/>
+      <c r="BK105" s="42"/>
+      <c r="BL105" s="42"/>
+      <c r="BM105" s="42"/>
+      <c r="BN105" s="42"/>
+      <c r="BO105" s="42"/>
+      <c r="BP105" s="42"/>
+    </row>
+    <row r="106" spans="1:68" ht="16.5">
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="42"/>
+      <c r="T106" s="42"/>
+      <c r="U106" s="42"/>
+      <c r="V106" s="42"/>
+      <c r="W106" s="42"/>
+      <c r="X106" s="42"/>
+      <c r="Y106" s="42"/>
+      <c r="Z106" s="42"/>
+      <c r="AA106" s="42"/>
+      <c r="AB106" s="42"/>
+      <c r="AC106" s="42"/>
+      <c r="AD106" s="42"/>
+      <c r="AE106" s="42"/>
+      <c r="AF106" s="42"/>
+      <c r="AG106" s="42"/>
+      <c r="AH106" s="42"/>
+      <c r="AI106" s="42"/>
+      <c r="AJ106" s="42"/>
+      <c r="AK106" s="42"/>
+      <c r="AL106" s="42"/>
+      <c r="AM106" s="42"/>
+      <c r="AN106" s="42"/>
+      <c r="AO106" s="42"/>
+      <c r="AP106" s="42"/>
+      <c r="AQ106" s="42"/>
+      <c r="AR106" s="42"/>
+      <c r="AS106" s="42"/>
+      <c r="AT106" s="42"/>
+      <c r="AU106" s="42"/>
+      <c r="AV106" s="42"/>
+      <c r="AW106" s="42"/>
+      <c r="AX106" s="42"/>
+      <c r="AY106" s="42"/>
+      <c r="AZ106" s="42"/>
+      <c r="BA106" s="42"/>
+      <c r="BB106" s="42"/>
+      <c r="BC106" s="42"/>
+      <c r="BD106" s="42"/>
+      <c r="BE106" s="42"/>
+      <c r="BF106" s="42"/>
+      <c r="BG106" s="42"/>
+      <c r="BH106" s="42"/>
+      <c r="BI106" s="42"/>
+      <c r="BJ106" s="42"/>
+      <c r="BK106" s="42"/>
+      <c r="BL106" s="42"/>
+      <c r="BM106" s="42"/>
+      <c r="BN106" s="42"/>
+      <c r="BO106" s="42"/>
+      <c r="BP106" s="42"/>
+    </row>
+    <row r="107" spans="1:68" ht="16.5">
+      <c r="A107" s="42"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="42"/>
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="42"/>
+      <c r="AB107" s="42"/>
+      <c r="AC107" s="42"/>
+      <c r="AD107" s="42"/>
+      <c r="AE107" s="42"/>
+      <c r="AF107" s="42"/>
+      <c r="AG107" s="42"/>
+      <c r="AH107" s="42"/>
+      <c r="AI107" s="42"/>
+      <c r="AJ107" s="42"/>
+      <c r="AK107" s="42"/>
+      <c r="AL107" s="42"/>
+      <c r="AM107" s="42"/>
+      <c r="AN107" s="42"/>
+      <c r="AO107" s="42"/>
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="42"/>
+      <c r="AR107" s="42"/>
+      <c r="AS107" s="42"/>
+      <c r="AT107" s="42"/>
+      <c r="AU107" s="42"/>
+      <c r="AV107" s="42"/>
+      <c r="AW107" s="42"/>
+      <c r="AX107" s="42"/>
+      <c r="AY107" s="42"/>
+      <c r="AZ107" s="42"/>
+      <c r="BA107" s="42"/>
+      <c r="BB107" s="42"/>
+      <c r="BC107" s="42"/>
+      <c r="BD107" s="42"/>
+      <c r="BE107" s="42"/>
+      <c r="BF107" s="42"/>
+      <c r="BG107" s="42"/>
+      <c r="BH107" s="42"/>
+      <c r="BI107" s="42"/>
+      <c r="BJ107" s="42"/>
+      <c r="BK107" s="42"/>
+      <c r="BL107" s="42"/>
+      <c r="BM107" s="42"/>
+      <c r="BN107" s="42"/>
+      <c r="BO107" s="42"/>
+      <c r="BP107" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="227">
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:AB37"/>
+    <mergeCell ref="AC37:AK37"/>
+    <mergeCell ref="AL37:AT37"/>
+    <mergeCell ref="AU37:AY37"/>
+    <mergeCell ref="AZ37:BO37"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="AC36:AK36"/>
+    <mergeCell ref="AL36:AT36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AZ36:BO36"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="L35:AB35"/>
+    <mergeCell ref="AC35:AK35"/>
+    <mergeCell ref="AL35:AT35"/>
+    <mergeCell ref="AU35:AY35"/>
+    <mergeCell ref="AZ35:BO35"/>
+    <mergeCell ref="AZ33:BO33"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:AB34"/>
+    <mergeCell ref="AC34:AK34"/>
+    <mergeCell ref="AL34:AT34"/>
+    <mergeCell ref="AU34:AY34"/>
+    <mergeCell ref="AZ34:BO34"/>
     <mergeCell ref="D24:P24"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="J92:AI92"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="AL33:AT33"/>
+    <mergeCell ref="AU33:AY33"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="J97:AI97"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BO10"/>
     <mergeCell ref="C19:P19"/>
@@ -20894,79 +21313,97 @@
     <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="AH19:AJ19"/>
     <mergeCell ref="AK19:BO19"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="J95:AI95"/>
+    <mergeCell ref="C96:I96"/>
+    <mergeCell ref="J96:AI96"/>
+    <mergeCell ref="C86:L86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="D88:AJ88"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="C90:I90"/>
-    <mergeCell ref="J90:AI90"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="J91:AI91"/>
-    <mergeCell ref="C81:L81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="D83:AJ83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="D85:AJ85"/>
-    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="D90:AJ90"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="M71:V71"/>
+    <mergeCell ref="W71:AO71"/>
+    <mergeCell ref="AP71:BA71"/>
+    <mergeCell ref="BB71:BO71"/>
+    <mergeCell ref="C85:P85"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="M69:V69"/>
+    <mergeCell ref="W69:AO69"/>
+    <mergeCell ref="AP69:BA69"/>
+    <mergeCell ref="BB69:BO69"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="M70:V70"/>
+    <mergeCell ref="W70:AO70"/>
+    <mergeCell ref="AP70:BA70"/>
+    <mergeCell ref="BB70:BO70"/>
+    <mergeCell ref="C67:L67"/>
+    <mergeCell ref="M67:V67"/>
+    <mergeCell ref="W67:AO67"/>
+    <mergeCell ref="AP67:BA67"/>
+    <mergeCell ref="BB67:BO67"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="M68:V68"/>
+    <mergeCell ref="W68:AO68"/>
+    <mergeCell ref="AP68:BA68"/>
+    <mergeCell ref="BB68:BO68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="M65:V65"/>
+    <mergeCell ref="W65:AO65"/>
+    <mergeCell ref="AP65:BA65"/>
+    <mergeCell ref="BB65:BO65"/>
     <mergeCell ref="C66:L66"/>
     <mergeCell ref="M66:V66"/>
     <mergeCell ref="W66:AO66"/>
     <mergeCell ref="AP66:BA66"/>
     <mergeCell ref="BB66:BO66"/>
-    <mergeCell ref="C80:P80"/>
-    <mergeCell ref="C64:L64"/>
-    <mergeCell ref="M64:V64"/>
-    <mergeCell ref="W64:AO64"/>
-    <mergeCell ref="AP64:BA64"/>
-    <mergeCell ref="BB64:BO64"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="M65:V65"/>
-    <mergeCell ref="W65:AO65"/>
-    <mergeCell ref="AP65:BA65"/>
-    <mergeCell ref="BB65:BO65"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="M62:V62"/>
-    <mergeCell ref="W62:AO62"/>
-    <mergeCell ref="AP62:BA62"/>
-    <mergeCell ref="BB62:BO62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="M63:V63"/>
-    <mergeCell ref="W63:AO63"/>
-    <mergeCell ref="AP63:BA63"/>
-    <mergeCell ref="BB63:BO63"/>
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="M60:V60"/>
-    <mergeCell ref="W60:AO60"/>
-    <mergeCell ref="AP60:BA60"/>
-    <mergeCell ref="BB60:BO60"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="M61:V61"/>
-    <mergeCell ref="W61:AO61"/>
-    <mergeCell ref="AP61:BA61"/>
-    <mergeCell ref="BB61:BO61"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:AB46"/>
-    <mergeCell ref="AC46:AK46"/>
-    <mergeCell ref="AL46:AT46"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AZ46:BO46"/>
-    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:AB51"/>
+    <mergeCell ref="AC51:AK51"/>
+    <mergeCell ref="AL51:AT51"/>
+    <mergeCell ref="AU51:AY51"/>
+    <mergeCell ref="AZ51:BO51"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:AB50"/>
+    <mergeCell ref="AC50:AK50"/>
+    <mergeCell ref="AL50:AT50"/>
+    <mergeCell ref="AU50:AY50"/>
+    <mergeCell ref="AZ50:BO50"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:AB49"/>
+    <mergeCell ref="AC49:AK49"/>
+    <mergeCell ref="AL49:AT49"/>
+    <mergeCell ref="AU49:AY49"/>
+    <mergeCell ref="AZ49:BO49"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="L48:AB48"/>
+    <mergeCell ref="AC48:AK48"/>
+    <mergeCell ref="AL48:AT48"/>
+    <mergeCell ref="AU48:AY48"/>
+    <mergeCell ref="AZ48:BO48"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="L47:AB47"/>
+    <mergeCell ref="AC47:AK47"/>
+    <mergeCell ref="AL47:AT47"/>
+    <mergeCell ref="AU47:AY47"/>
+    <mergeCell ref="AZ47:BO47"/>
+    <mergeCell ref="D45:K45"/>
     <mergeCell ref="L45:AB45"/>
     <mergeCell ref="AC45:AK45"/>
     <mergeCell ref="AL45:AT45"/>
     <mergeCell ref="AU45:AY45"/>
     <mergeCell ref="AZ45:BO45"/>
-    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="D44:K44"/>
     <mergeCell ref="L44:AB44"/>
     <mergeCell ref="AC44:AK44"/>
     <mergeCell ref="AL44:AT44"/>
     <mergeCell ref="AU44:AY44"/>
     <mergeCell ref="AZ44:BO44"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="L43:AB43"/>
-    <mergeCell ref="AC43:AK43"/>
-    <mergeCell ref="AL43:AT43"/>
-    <mergeCell ref="AU43:AY43"/>
-    <mergeCell ref="AZ43:BO43"/>
-    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="C42:K42"/>
     <mergeCell ref="L42:AB42"/>
     <mergeCell ref="AC42:AK42"/>
     <mergeCell ref="AL42:AT42"/>
@@ -20984,24 +21421,6 @@
     <mergeCell ref="AL39:AT39"/>
     <mergeCell ref="AU39:AY39"/>
     <mergeCell ref="AZ39:BO39"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:AB37"/>
-    <mergeCell ref="AC37:AK37"/>
-    <mergeCell ref="AL37:AT37"/>
-    <mergeCell ref="AU37:AY37"/>
-    <mergeCell ref="AZ37:BO37"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:AB35"/>
-    <mergeCell ref="AC35:AK35"/>
-    <mergeCell ref="AL35:AT35"/>
-    <mergeCell ref="AU35:AY35"/>
-    <mergeCell ref="AZ35:BO35"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="L34:AB34"/>
-    <mergeCell ref="AC34:AK34"/>
-    <mergeCell ref="AL34:AT34"/>
-    <mergeCell ref="AU34:AY34"/>
-    <mergeCell ref="AZ34:BO34"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="L32:AB32"/>
     <mergeCell ref="AC32:AK32"/>
@@ -21092,8 +21511,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
     <brk id="25" max="16383" man="1"/>
-    <brk id="47" max="16383" man="1"/>
-    <brk id="76" max="16383" man="1"/>
+    <brk id="52" max="16383" man="1"/>
+    <brk id="81" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
